--- a/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
+++ b/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E2EFF-2B62-45E1-938E-9A9C79F86B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B73023-200E-41B4-B6DA-849A52B06DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enable URL rewriting" sheetId="1" r:id="rId1"/>
+    <sheet name="The front controller" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>rest-api-php</t>
   </si>
@@ -165,9 +166,6 @@
     <t>Check browser</t>
   </si>
   <si>
-    <t>http://localhost/rest-api-php/4.create-a-restful-api/api/index.php</t>
-  </si>
-  <si>
     <t>URL để truy cập có chứa folder và tên script trên server</t>
   </si>
   <si>
@@ -192,10 +190,159 @@
     <t>Theo Restful api</t>
   </si>
   <si>
-    <t>http://localhost/rest-api-php/4.create-a-restful-api/api/tasks</t>
-  </si>
-  <si>
-    <t>http://localhost/rest-api-php/4.create-a-restful-api/api/tasks/123</t>
+    <t>httpd-vhosts.conf</t>
+  </si>
+  <si>
+    <t>C:\xampp\apache\conf\extra\httpd-vhosts.conf</t>
+  </si>
+  <si>
+    <t>&lt;VirtualHost *:80&gt;</t>
+  </si>
+  <si>
+    <t>    ServerAdmin localhost</t>
+  </si>
+  <si>
+    <t>    ServerName localhost</t>
+  </si>
+  <si>
+    <t>    ErrorLog "logs/localhost-error.log"</t>
+  </si>
+  <si>
+    <t>    CustomLog "logs/localhost-access.log" common</t>
+  </si>
+  <si>
+    <t>&lt;/VirtualHost&gt;</t>
+  </si>
+  <si>
+    <t>http://localhost/api/index.php</t>
+  </si>
+  <si>
+    <t>http://localhost/api/tasks</t>
+  </si>
+  <si>
+    <t>http://localhost/api/tasks/123</t>
+  </si>
+  <si>
+    <r>
+      <t>    DocumentRoot "C:/xampp/htdocs/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rest-api-php/4.create-a-restful-api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>$path = parse_url($_SERVER["REQUEST_URI"], PHP_URL_PATH);</t>
+  </si>
+  <si>
+    <t>$parts = explode("/", $path);</t>
+  </si>
+  <si>
+    <t>$resource = $parts[2];</t>
+  </si>
+  <si>
+    <t>$id = $parts[3] ?? null;</t>
+  </si>
+  <si>
+    <t>echo $resource, ", ", $id;</t>
+  </si>
+  <si>
+    <t>echo $_SERVER["REQUEST_METHOD"];</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ở phần trước(bên sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable URL rewriting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) thì mình đã rewriting tất cả các url của restful api(tasks, tasks/123) trỏ đến cùng 1 script đó là index.php</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Các phần xử lý trong index.php được gọi là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>front controller</t>
+    </r>
+  </si>
+  <si>
+    <t>Tức là tất cả các request sẽ được gửi đến cùng 1 script là index.php</t>
+  </si>
+  <si>
+    <t>call api collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$path </t>
+  </si>
+  <si>
+    <t>/api/tasks</t>
+  </si>
+  <si>
+    <t>$resource</t>
+  </si>
+  <si>
+    <t>$id</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>$_SERVER["REQUEST_METHOD"]</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>call api individual resource(123 là id)</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>$path</t>
   </si>
 </sst>
 </file>
@@ -218,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +378,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -400,11 +553,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -431,6 +636,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,13 +678,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -476,7 +700,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3076575" y="16744950"/>
+          <a:off x="3076575" y="18840450"/>
           <a:ext cx="4810125" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -507,13 +731,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -529,7 +753,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3067050" y="16916400"/>
+          <a:off x="3067050" y="19011900"/>
           <a:ext cx="5181600" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -560,13 +784,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -582,7 +806,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3076575" y="17106900"/>
+          <a:off x="3076575" y="19202400"/>
           <a:ext cx="5133975" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -613,13 +837,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>101681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -643,7 +867,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704851" y="1009650"/>
+          <a:off x="704851" y="3105150"/>
           <a:ext cx="11334750" cy="4616531"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -657,13 +881,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -679,7 +903,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2076450" y="914400"/>
+          <a:off x="2076450" y="3009900"/>
           <a:ext cx="2619375" cy="3743325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -710,13 +934,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -732,7 +956,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990850" y="714375"/>
+          <a:off x="2990850" y="2809875"/>
           <a:ext cx="5295900" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -763,13 +987,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -785,7 +1009,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733800" y="714375"/>
+          <a:off x="3733800" y="2809875"/>
           <a:ext cx="6362700" cy="4000500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -816,13 +1040,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -838,8 +1062,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1352550" y="561975"/>
-          <a:ext cx="6086475" cy="5781675"/>
+          <a:off x="1352550" y="2657475"/>
+          <a:ext cx="6086475" cy="5972175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -869,13 +1093,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>133818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -899,7 +1123,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742949" y="6953250"/>
+          <a:off x="742949" y="9048750"/>
           <a:ext cx="11287125" cy="5563068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -913,13 +1137,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -935,8 +1159,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3619500" y="4705350"/>
-          <a:ext cx="6762750" cy="9077325"/>
+          <a:off x="3619500" y="6800850"/>
+          <a:ext cx="6762750" cy="10982325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -966,13 +1190,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -988,7 +1212,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791200" y="6829425"/>
+          <a:off x="5791200" y="8924925"/>
           <a:ext cx="5781675" cy="9734550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1019,13 +1243,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>151553</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>123673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1049,7 +1273,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="19488150"/>
+          <a:off x="695325" y="21583650"/>
           <a:ext cx="6771428" cy="1219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1063,13 +1287,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1085,8 +1309,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="581025"/>
-          <a:ext cx="57150" cy="18278475"/>
+          <a:off x="647700" y="2676525"/>
+          <a:ext cx="57150" cy="18468975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1116,13 +1340,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>265993</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>57027</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1146,7 +1370,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="21564600"/>
+          <a:off x="704850" y="23660100"/>
           <a:ext cx="5657143" cy="980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1160,13 +1384,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>170830</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>190364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1190,7 +1414,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="23117175"/>
+          <a:off x="695325" y="25212675"/>
           <a:ext cx="4961905" cy="1085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1204,13 +1428,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1226,8 +1450,260 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="923925" y="6496050"/>
+          <a:off x="923925" y="8591550"/>
           <a:ext cx="28575" cy="14678025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198D9D48-6146-608F-8102-B4116A6D9645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3038475" y="1285875"/>
+          <a:ext cx="666750" cy="15935325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218365</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B015CD-25A0-3280-1CB6-F978065263B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="7677150"/>
+          <a:ext cx="5676190" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56533</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>18915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E130E8-0A0D-F6E6-54D2-27490D27BD55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="10944225"/>
+          <a:ext cx="4933333" cy="1076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918FA527-98EB-2907-B962-3C06E7182BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5629275" y="6648450"/>
+          <a:ext cx="895350" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1818C0-5673-AB46-B6EA-5B24048CB23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5629275" y="6677025"/>
+          <a:ext cx="885825" cy="5705475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1519,17 +1995,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Z129"/>
+  <dimension ref="A3:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="T131" sqref="T131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1537,257 +2013,132 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="5"/>
+      <c r="B14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1807,8 +2158,10 @@
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -2122,53 +2475,91 @@
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2189,9 +2580,7 @@
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -2317,91 +2706,53 @@
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="5"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="6"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="5"/>
+      <c r="B45" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="3"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -2422,7 +2773,9 @@
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2799,7 +3152,7 @@
       <c r="S64" s="11"/>
       <c r="T64" s="5"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -2820,7 +3173,7 @@
       <c r="S65" s="11"/>
       <c r="T65" s="5"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2841,589 +3194,642 @@
       <c r="S66" s="11"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="6"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
-      <c r="C72" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
-      <c r="C73" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="5"/>
-      <c r="K80" t="s">
-        <v>9</v>
-      </c>
-      <c r="L80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="5"/>
-      <c r="K81" t="s">
-        <v>9</v>
-      </c>
-      <c r="L81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="5"/>
-      <c r="K82" t="s">
-        <v>9</v>
-      </c>
-      <c r="L82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="5"/>
-      <c r="G88" t="s">
+      <c r="E88" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="5"/>
+      <c r="K91" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="L91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="5"/>
+      <c r="K92" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="5"/>
+      <c r="K93" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="6"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="5"/>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="3"/>
-      <c r="S88" t="s">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="3"/>
+      <c r="S99" t="s">
         <v>9</v>
       </c>
-      <c r="T88" s="1" t="s">
+      <c r="T99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="5"/>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="5"/>
+      <c r="S100" t="s">
+        <v>9</v>
+      </c>
+      <c r="T100" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="3"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="5"/>
-      <c r="G89" t="s">
+      <c r="U100" s="11"/>
+      <c r="V100" s="11"/>
+      <c r="W100" s="11"/>
+      <c r="X100" s="11"/>
+      <c r="Y100" s="11"/>
+      <c r="Z100" s="5"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="5"/>
+      <c r="G101" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="5"/>
-      <c r="S89" t="s">
+      <c r="H101" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="6"/>
+      <c r="S101" t="s">
         <v>9</v>
       </c>
-      <c r="T89" s="4" t="s">
+      <c r="T101" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="5"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="5"/>
-      <c r="G90" t="s">
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="6"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="6"/>
+      <c r="G102" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="6"/>
-      <c r="S90" t="s">
-        <v>9</v>
-      </c>
-      <c r="T90" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="6"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="6"/>
-      <c r="G91" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="H102" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="20"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="22"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="22"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="22"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="22"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="22"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="22"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="22"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="22"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="22"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="22"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="22"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="110" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="20"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -3433,15 +3839,17 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="22"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="22"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="B113" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -3451,12 +3859,14 @@
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="5"/>
+      <c r="K113" s="11"/>
       <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="22"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M113" s="5"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="22"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -3467,12 +3877,14 @@
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="5"/>
+      <c r="K114" s="11"/>
       <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="22"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M114" s="5"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="22"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -3483,12 +3895,14 @@
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="5"/>
+      <c r="K115" s="11"/>
       <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="22"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M115" s="5"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="22"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -3499,12 +3913,14 @@
       <c r="H116" s="11"/>
       <c r="I116" s="11"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="5"/>
+      <c r="K116" s="11"/>
       <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="22"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M116" s="5"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="22"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -3515,12 +3931,14 @@
       <c r="H117" s="11"/>
       <c r="I117" s="11"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="5"/>
+      <c r="K117" s="11"/>
       <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="22"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M117" s="5"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="22"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -3531,12 +3949,14 @@
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="5"/>
+      <c r="K118" s="11"/>
       <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="22"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M118" s="5"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="22"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -3547,32 +3967,34 @@
       <c r="H119" s="11"/>
       <c r="I119" s="11"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="5"/>
+      <c r="K119" s="11"/>
       <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="22"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M119" s="5"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="22"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="21"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="22"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="22"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
-      <c r="B121" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
@@ -3581,14 +4003,16 @@
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="5"/>
+      <c r="K121" s="11"/>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
-      <c r="N121" s="22"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="22"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="21"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -3597,30 +4021,38 @@
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="5"/>
+      <c r="K122" s="11"/>
       <c r="L122" s="11"/>
       <c r="M122" s="11"/>
-      <c r="N122" s="22"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="22"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="5"/>
+      <c r="B123" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="3"/>
       <c r="L123" s="11"/>
       <c r="M123" s="11"/>
-      <c r="N123" s="22"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="22"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
@@ -3630,11 +4062,17 @@
       <c r="I124" s="11"/>
       <c r="J124" s="11"/>
       <c r="K124" s="5"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="22"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="22"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -3648,9 +4086,11 @@
       <c r="K125" s="5"/>
       <c r="L125" s="11"/>
       <c r="M125" s="11"/>
-      <c r="N125" s="22"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="22"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -3664,9 +4104,11 @@
       <c r="K126" s="5"/>
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
-      <c r="N126" s="22"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="22"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -3680,43 +4122,1205 @@
       <c r="K127" s="5"/>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
-      <c r="N127" s="22"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="22"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="6"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="5"/>
       <c r="L128" s="11"/>
       <c r="M128" s="11"/>
-      <c r="N128" s="22"/>
-    </row>
-    <row r="129" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="25"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="22"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="21"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="22"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="21"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="22"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="21"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="22"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="21"/>
+      <c r="B132" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="22"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="21"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="22"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="21"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="22"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="21"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="22"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="21"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="22"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="21"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="22"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="21"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="22"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="21"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="22"/>
+    </row>
+    <row r="140" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="23"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="24"/>
+      <c r="O140" s="24"/>
+      <c r="P140" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C71544-BA52-4DDB-B461-280B3FEBAA7F}">
+  <dimension ref="A2:M69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="5"/>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="5"/>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="5"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="5"/>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="5"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="5"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="6"/>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="22"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="22"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="22"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="22"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="22"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="22"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="22"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="22"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="22"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
+++ b/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B73023-200E-41B4-B6DA-849A52B06DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D344F2-DA80-41BF-A3AA-ECE63BC82669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enable URL rewriting" sheetId="1" r:id="rId1"/>
     <sheet name="The front controller" sheetId="2" r:id="rId2"/>
+    <sheet name="use client for API development" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>rest-api-php</t>
   </si>
@@ -98,7 +109,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +127,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -131,7 +142,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +157,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,7 +241,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -240,7 +251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,7 +287,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -286,7 +297,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -301,7 +312,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -344,25 +355,628 @@
   <si>
     <t>$path</t>
   </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u test b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng browser thì mình ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> test cho ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c GET</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>curl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>call api: curl http://localhost/api/task</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh thì api đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c là GET</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Use a client for API development: cURL, Postman or HTTPie</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh đã có trên các h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">u hành desktop. </t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>curl http://localhost/api/tasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>curl http://localhost/api/tasks --request PATCH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i các ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c khác b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng cách truy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n thêm option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> là --resquest ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c -X</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>curl http://localhost/api/tasks -X PATCH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>postman</t>
+  </si>
+  <si>
+    <t>https://www.postman.com/</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -657,7 +1271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1732,6 +2346,328 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D84B665-C133-1CC9-6E54-807AA087C57F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="814294" y="2159000"/>
+          <a:ext cx="10761905" cy="2314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>433294</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1735FD86-2140-7099-BB21-DC3D17593AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2121647" y="1778001"/>
+          <a:ext cx="1598706" cy="1770528"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>186764</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843A5F59-C2E1-1BF3-6EA7-087FAA73E765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="844176" y="5827059"/>
+          <a:ext cx="8190476" cy="2209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>565975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>73110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6383F915-CC94-7681-ABF0-270B69B43578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769471" y="8643471"/>
+          <a:ext cx="8342857" cy="2314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>410882</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>105359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4D1F2D-7EC8-F5BF-3D65-783883DC5A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="747059" y="12348882"/>
+          <a:ext cx="12154647" cy="6051948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97118</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>187723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538490C7-8BE2-9695-6241-D5C54D977D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754530" y="18766119"/>
+          <a:ext cx="12206941" cy="5969957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>216972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8DDCE6-C4C6-990B-CC74-37114F3694C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="881530" y="25041412"/>
+          <a:ext cx="12012705" cy="5745207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1997,13 +2933,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="T131" sqref="T131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="13" t="s">
         <v>38</v>
       </c>
@@ -2015,7 +2951,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
@@ -2027,7 +2963,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
@@ -2039,7 +2975,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
@@ -2051,7 +2987,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
@@ -2063,7 +2999,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2075,7 +3011,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -2087,7 +3023,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
@@ -2099,7 +3035,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="7" t="s">
         <v>45</v>
       </c>
@@ -2111,7 +3047,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="13" t="s">
         <v>31</v>
       </c>
@@ -2134,7 +3070,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="16"/>
       <c r="C15" s="11" t="s">
         <v>30</v>
@@ -2157,7 +3093,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="16"/>
       <c r="C16" s="15" t="s">
         <v>46</v>
@@ -2180,7 +3116,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2201,7 +3137,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2222,7 +3158,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2243,7 +3179,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2264,7 +3200,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2285,7 +3221,7 @@
       <c r="S21" s="11"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2306,7 +3242,7 @@
       <c r="S22" s="11"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2327,7 +3263,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2348,7 +3284,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2369,7 +3305,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2390,7 +3326,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2411,7 +3347,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2432,7 +3368,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2453,7 +3389,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2474,7 +3410,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2495,7 +3431,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2516,7 +3452,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2537,7 +3473,7 @@
       <c r="S33" s="11"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2558,7 +3494,7 @@
       <c r="S34" s="11"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2579,7 +3515,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2600,7 +3536,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2621,7 +3557,7 @@
       <c r="S37" s="11"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2642,7 +3578,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2663,7 +3599,7 @@
       <c r="S39" s="11"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2684,7 +3620,7 @@
       <c r="S40" s="11"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2705,7 +3641,7 @@
       <c r="S41" s="11"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="14"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2726,7 +3662,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="13" t="s">
         <v>37</v>
       </c>
@@ -2749,7 +3685,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="4" t="s">
         <v>32</v>
       </c>
@@ -2772,7 +3708,7 @@
       <c r="S46" s="11"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2795,7 +3731,7 @@
       <c r="S47" s="11"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2816,7 +3752,7 @@
       <c r="S48" s="11"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2837,7 +3773,7 @@
       <c r="S49" s="11"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2858,7 +3794,7 @@
       <c r="S50" s="11"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2879,7 +3815,7 @@
       <c r="S51" s="11"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -2900,7 +3836,7 @@
       <c r="S52" s="11"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2921,7 +3857,7 @@
       <c r="S53" s="11"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2942,7 +3878,7 @@
       <c r="S54" s="11"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2963,7 +3899,7 @@
       <c r="S55" s="11"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2984,7 +3920,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="5"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -3005,7 +3941,7 @@
       <c r="S57" s="11"/>
       <c r="T57" s="5"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -3026,7 +3962,7 @@
       <c r="S58" s="11"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -3047,7 +3983,7 @@
       <c r="S59" s="11"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -3068,7 +4004,7 @@
       <c r="S60" s="11"/>
       <c r="T60" s="5"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -3089,7 +4025,7 @@
       <c r="S61" s="11"/>
       <c r="T61" s="5"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -3110,7 +4046,7 @@
       <c r="S62" s="11"/>
       <c r="T62" s="5"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -3131,7 +4067,7 @@
       <c r="S63" s="11"/>
       <c r="T63" s="5"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -3152,7 +4088,7 @@
       <c r="S64" s="11"/>
       <c r="T64" s="5"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -3173,7 +4109,7 @@
       <c r="S65" s="11"/>
       <c r="T65" s="5"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -3194,7 +4130,7 @@
       <c r="S66" s="11"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -3215,7 +4151,7 @@
       <c r="S67" s="11"/>
       <c r="T67" s="5"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -3236,7 +4172,7 @@
       <c r="S68" s="11"/>
       <c r="T68" s="5"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -3257,7 +4193,7 @@
       <c r="S69" s="11"/>
       <c r="T69" s="5"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -3278,7 +4214,7 @@
       <c r="S70" s="11"/>
       <c r="T70" s="5"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -3299,7 +4235,7 @@
       <c r="S71" s="11"/>
       <c r="T71" s="5"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -3320,7 +4256,7 @@
       <c r="S72" s="11"/>
       <c r="T72" s="5"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -3341,7 +4277,7 @@
       <c r="S73" s="11"/>
       <c r="T73" s="5"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -3362,7 +4298,7 @@
       <c r="S74" s="11"/>
       <c r="T74" s="5"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -3383,7 +4319,7 @@
       <c r="S75" s="11"/>
       <c r="T75" s="5"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -3404,7 +4340,7 @@
       <c r="S76" s="11"/>
       <c r="T76" s="5"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -3425,7 +4361,7 @@
       <c r="S77" s="11"/>
       <c r="T77" s="5"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3446,12 +4382,12 @@
       <c r="S78" s="8"/>
       <c r="T78" s="6"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
@@ -3464,7 +4400,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="4"/>
       <c r="C83" s="11" t="s">
         <v>1</v>
@@ -3477,7 +4413,7 @@
       <c r="I83" s="11"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="4"/>
       <c r="C84" s="11" t="s">
         <v>2</v>
@@ -3490,7 +4426,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="4"/>
       <c r="C85" s="11" t="s">
         <v>3</v>
@@ -3503,7 +4439,7 @@
       <c r="I85" s="11"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11" t="s">
@@ -3516,7 +4452,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -3529,7 +4465,7 @@
       <c r="I87" s="11"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -3542,7 +4478,7 @@
       <c r="I88" s="11"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="s">
@@ -3555,7 +4491,7 @@
       <c r="I89" s="11"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
       <c r="D90" s="12" t="s">
@@ -3568,7 +4504,7 @@
       <c r="I90" s="11"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
       <c r="D91" s="10" t="s">
@@ -3587,7 +4523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
       <c r="D92" s="10"/>
@@ -3606,7 +4542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
       <c r="D93" s="10"/>
@@ -3625,7 +4561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="9"/>
@@ -3638,12 +4574,12 @@
       <c r="I94" s="8"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1" t="s">
         <v>17</v>
       </c>
@@ -3652,7 +4588,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="4" t="s">
         <v>18</v>
       </c>
@@ -3689,7 +4625,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="4" t="s">
         <v>19</v>
       </c>
@@ -3726,7 +4662,7 @@
       <c r="Y100" s="11"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="4" t="s">
         <v>20</v>
       </c>
@@ -3763,7 +4699,7 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="6"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="7" t="s">
         <v>21</v>
       </c>
@@ -3778,12 +4714,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1" t="s">
         <v>27</v>
       </c>
@@ -3791,13 +4727,13 @@
       <c r="D106" s="2"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="7" t="s">
         <v>28</v>
       </c>
@@ -3805,8 +4741,8 @@
       <c r="D108" s="8"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="18" t="s">
         <v>29</v>
       </c>
@@ -3826,7 +4762,7 @@
       <c r="O111" s="19"/>
       <c r="P111" s="20"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="21"/>
       <c r="B112" s="13" t="s">
         <v>31</v>
@@ -3846,7 +4782,7 @@
       <c r="O112" s="11"/>
       <c r="P112" s="22"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="21"/>
       <c r="B113" s="17" t="s">
         <v>46</v>
@@ -3866,7 +4802,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="22"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="21"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -3884,7 +4820,7 @@
       <c r="O114" s="11"/>
       <c r="P114" s="22"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="21"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -3902,7 +4838,7 @@
       <c r="O115" s="11"/>
       <c r="P115" s="22"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="21"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -3920,7 +4856,7 @@
       <c r="O116" s="11"/>
       <c r="P116" s="22"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="21"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -3938,7 +4874,7 @@
       <c r="O117" s="11"/>
       <c r="P117" s="22"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="21"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -3956,7 +4892,7 @@
       <c r="O118" s="11"/>
       <c r="P118" s="22"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="21"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -3974,7 +4910,7 @@
       <c r="O119" s="11"/>
       <c r="P119" s="22"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="21"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -3992,7 +4928,7 @@
       <c r="O120" s="11"/>
       <c r="P120" s="22"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="21"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -4010,7 +4946,7 @@
       <c r="O121" s="11"/>
       <c r="P121" s="22"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="21"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -4028,7 +4964,7 @@
       <c r="O122" s="11"/>
       <c r="P122" s="22"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="21"/>
       <c r="B123" s="13" t="s">
         <v>37</v>
@@ -4048,7 +4984,7 @@
       <c r="O123" s="11"/>
       <c r="P123" s="22"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="21"/>
       <c r="B124" s="17" t="s">
         <v>47</v>
@@ -4072,7 +5008,7 @@
       <c r="O124" s="11"/>
       <c r="P124" s="22"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="21"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -4090,7 +5026,7 @@
       <c r="O125" s="11"/>
       <c r="P125" s="22"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="21"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -4108,7 +5044,7 @@
       <c r="O126" s="11"/>
       <c r="P126" s="22"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="21"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -4126,7 +5062,7 @@
       <c r="O127" s="11"/>
       <c r="P127" s="22"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="21"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -4144,7 +5080,7 @@
       <c r="O128" s="11"/>
       <c r="P128" s="22"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="21"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -4162,7 +5098,7 @@
       <c r="O129" s="11"/>
       <c r="P129" s="22"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="21"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -4180,7 +5116,7 @@
       <c r="O130" s="11"/>
       <c r="P130" s="22"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="21"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -4198,7 +5134,7 @@
       <c r="O131" s="11"/>
       <c r="P131" s="22"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="21"/>
       <c r="B132" s="17" t="s">
         <v>48</v>
@@ -4222,7 +5158,7 @@
       <c r="O132" s="11"/>
       <c r="P132" s="22"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="21"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -4240,7 +5176,7 @@
       <c r="O133" s="11"/>
       <c r="P133" s="22"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="21"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -4258,7 +5194,7 @@
       <c r="O134" s="11"/>
       <c r="P134" s="22"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="21"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -4276,7 +5212,7 @@
       <c r="O135" s="11"/>
       <c r="P135" s="22"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="21"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -4294,7 +5230,7 @@
       <c r="O136" s="11"/>
       <c r="P136" s="22"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="21"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -4312,7 +5248,7 @@
       <c r="O137" s="11"/>
       <c r="P137" s="22"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="21"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -4330,7 +5266,7 @@
       <c r="O138" s="11"/>
       <c r="P138" s="22"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="21"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -4348,7 +5284,7 @@
       <c r="O139" s="11"/>
       <c r="P139" s="22"/>
     </row>
-    <row r="140" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
@@ -4367,6 +5303,7 @@
       <c r="P140" s="25"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4377,32 +5314,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C71544-BA52-4DDB-B461-280B3FEBAA7F}">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
@@ -4418,7 +5355,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
         <v>0</v>
@@ -4434,7 +5371,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
       <c r="B8" s="30"/>
       <c r="C8" s="12" t="s">
@@ -4450,7 +5387,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12" t="s">
@@ -4466,7 +5403,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26"/>
       <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
@@ -4482,7 +5419,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26"/>
       <c r="B11" s="30"/>
       <c r="C11" s="12"/>
@@ -4498,7 +5435,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26"/>
       <c r="B12" s="30"/>
       <c r="C12" s="12"/>
@@ -4514,7 +5451,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
@@ -4530,7 +5467,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12"/>
@@ -4546,7 +5483,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
@@ -4562,7 +5499,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12"/>
@@ -4578,7 +5515,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="26"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
@@ -4594,7 +5531,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26"/>
       <c r="B18" s="30"/>
       <c r="C18" s="12"/>
@@ -4608,7 +5545,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
@@ -4628,12 +5565,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -4644,7 +5581,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -4653,7 +5590,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
@@ -4673,7 +5610,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -4686,7 +5623,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -4701,7 +5638,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -4714,7 +5651,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
@@ -4734,7 +5671,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -4747,7 +5684,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="4" t="s">
         <v>53</v>
       </c>
@@ -4767,7 +5704,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -4780,7 +5717,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
@@ -4795,7 +5732,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -4808,7 +5745,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="7" t="s">
         <v>55</v>
       </c>
@@ -4828,8 +5765,8 @@
       <c r="L35" s="8"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
@@ -4845,7 +5782,7 @@
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="21"/>
       <c r="B39" s="13" t="s">
         <v>60</v>
@@ -4861,7 +5798,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="21"/>
       <c r="B40" s="17" t="s">
         <v>47</v>
@@ -4877,7 +5814,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="21"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4891,7 +5828,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="21"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4905,7 +5842,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="21"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4919,7 +5856,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="21"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4933,7 +5870,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="21"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4947,7 +5884,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="21"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -4961,7 +5898,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="21"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -4975,7 +5912,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="21"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -4989,7 +5926,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="21"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -5003,7 +5940,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="21"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -5017,7 +5954,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="21"/>
       <c r="B51" s="4"/>
       <c r="C51" s="39" t="s">
@@ -5039,7 +5976,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="21"/>
       <c r="B52" s="4"/>
       <c r="C52" s="35" t="s">
@@ -5061,7 +5998,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="21"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -5075,7 +6012,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="21"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5089,7 +6026,7 @@
       <c r="K54" s="11"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="21"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5103,7 +6040,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="21"/>
       <c r="B56" s="13" t="s">
         <v>68</v>
@@ -5119,7 +6056,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="21"/>
       <c r="B57" s="44" t="s">
         <v>48</v>
@@ -5135,7 +6072,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="21"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -5149,7 +6086,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="21"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -5163,7 +6100,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="21"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -5177,7 +6114,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="21"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -5191,7 +6128,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="21"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -5205,7 +6142,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="21"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -5219,7 +6156,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="22"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="21"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -5233,7 +6170,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="21"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -5247,7 +6184,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="21"/>
       <c r="B66" s="4"/>
       <c r="C66" s="39" t="s">
@@ -5269,7 +6206,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="21"/>
       <c r="B67" s="4"/>
       <c r="C67" s="35" t="s">
@@ -5291,7 +6228,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="21"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
@@ -5305,7 +6242,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -5320,7 +6257,3002 @@
       <c r="L69" s="25"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E41FDF-19ED-4A65-B0F7-DB9E96A3E4AA}">
+  <dimension ref="A2:U134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="21"/>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="22"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="21"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="22"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="21"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="22"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="21"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="21"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="22"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="21"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="21"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="22"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="21"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="22"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="21"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="22"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="21"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="22"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="21"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="22"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="21"/>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="22"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="21"/>
+      <c r="B25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="22"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="21"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="22"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="21"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="22"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="21"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="22"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="21"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="22"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="21"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="22"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="21"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="22"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="21"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="22"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="21"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="22"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="21"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="22"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="21"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="22"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="21"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="22"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="21"/>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="22"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="21"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="22"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="21"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="22"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="21"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="22"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="21"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="22"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="21"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="22"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="21"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="22"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="21"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="22"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="21"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="22"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="21"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="22"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="21"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="22"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="21"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="22"/>
+    </row>
+    <row r="49" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="25"/>
+    </row>
+    <row r="51" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="20"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="21"/>
+      <c r="B53" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="22"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="21"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="22"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="21"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="22"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="21"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="22"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="21"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="22"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="21"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="22"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="21"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="22"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="21"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="22"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="21"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="22"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="21"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="22"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="21"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="22"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="21"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="22"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="21"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="22"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="21"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="22"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="21"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="22"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="21"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="22"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="21"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="22"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="21"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="22"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="21"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="22"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="21"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="22"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="21"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="22"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="21"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="22"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="21"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="22"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="21"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="22"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="21"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="22"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="21"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="22"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="21"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="22"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="21"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="22"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="21"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="22"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="21"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="22"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="21"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="22"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="21"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="22"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="21"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="22"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="21"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="22"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="21"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="22"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="21"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="22"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="21"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="22"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="21"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="22"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="21"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="22"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="21"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="22"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="21"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="22"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="21"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="22"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="21"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="22"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="21"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="22"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="21"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="22"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="21"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="22"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="21"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="22"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="21"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="11"/>
+      <c r="U100" s="22"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="21"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="22"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="21"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="22"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="21"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="11"/>
+      <c r="U103" s="22"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="21"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="22"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="21"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="11"/>
+      <c r="U105" s="22"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="21"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="11"/>
+      <c r="U106" s="22"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="21"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="22"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="21"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="22"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="21"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="11"/>
+      <c r="U109" s="22"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="21"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="22"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="21"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="11"/>
+      <c r="U111" s="22"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="21"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="11"/>
+      <c r="U112" s="22"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="21"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="11"/>
+      <c r="U113" s="22"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="21"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="11"/>
+      <c r="U114" s="22"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="21"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="11"/>
+      <c r="U115" s="22"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="21"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="11"/>
+      <c r="U116" s="22"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="21"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="11"/>
+      <c r="T117" s="11"/>
+      <c r="U117" s="22"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="21"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="22"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="21"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="11"/>
+      <c r="U119" s="22"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="21"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="11"/>
+      <c r="U120" s="22"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="21"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
+      <c r="T121" s="11"/>
+      <c r="U121" s="22"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="21"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="11"/>
+      <c r="U122" s="22"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="21"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="11"/>
+      <c r="T123" s="11"/>
+      <c r="U123" s="22"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="21"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="11"/>
+      <c r="U124" s="22"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="21"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="11"/>
+      <c r="U125" s="22"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="21"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="11"/>
+      <c r="T126" s="11"/>
+      <c r="U126" s="22"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="21"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+      <c r="U127" s="22"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="21"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="11"/>
+      <c r="U128" s="22"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="21"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="11"/>
+      <c r="T129" s="11"/>
+      <c r="U129" s="22"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="21"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="11"/>
+      <c r="U130" s="22"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="21"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="11"/>
+      <c r="U131" s="22"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="21"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="11"/>
+      <c r="U132" s="22"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="21"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="11"/>
+      <c r="U133" s="22"/>
+    </row>
+    <row r="134" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A134" s="23"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="24"/>
+      <c r="O134" s="24"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="24"/>
+      <c r="R134" s="24"/>
+      <c r="S134" s="24"/>
+      <c r="T134" s="24"/>
+      <c r="U134" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
+++ b/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D344F2-DA80-41BF-A3AA-ECE63BC82669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA2962-7A8C-45CB-8437-D17EB3202637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enable URL rewriting" sheetId="1" r:id="rId1"/>
     <sheet name="The front controller" sheetId="2" r:id="rId2"/>
     <sheet name="use client for API development" sheetId="3" r:id="rId3"/>
+    <sheet name="Set the HTTP status code" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <t>rest-api-php</t>
   </si>
@@ -930,12 +931,185 @@
     <t>https://www.postman.com/</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>/api/tasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://localhost/api/tasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Qu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n lý api có enpoint có d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng /tasks và /tasks/id. Url có d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng khác thì s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 404</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http_response_code</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.http-response-code.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\api\index.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>if ($resource != "tasks") {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    http_response_code(404);</t>
+  </si>
+  <si>
+    <t>    exit;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>status: 200</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>status: 404</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,6 +1151,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1223,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1269,6 +1451,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2668,6 +2853,249 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>37429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA4E0A0-375D-7B7E-188C-4E168ABC87C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806451" y="1308100"/>
+          <a:ext cx="12274550" cy="6044529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>433294</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>64170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB61FC7-C8CB-008D-8AA8-589D71A94F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="791882" y="22792765"/>
+          <a:ext cx="12132236" cy="4367229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>74705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>440764</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>23605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBDC228-CACC-3C7F-41D6-684A037A2E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="814294" y="17443823"/>
+          <a:ext cx="12117294" cy="4349076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46BBCBC-C698-C1F8-0BC0-F31273AD4185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441824" y="22650824"/>
+          <a:ext cx="7261411" cy="3115235"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>530412</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D47B35-2C68-065C-1CEA-33AF315ADD94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1426882" y="17324294"/>
+          <a:ext cx="7649883" cy="3182471"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5314,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C71544-BA52-4DDB-B461-280B3FEBAA7F}">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5801,7 +6229,7 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="21"/>
       <c r="B40" s="17" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -5980,7 +6408,7 @@
       <c r="A52" s="21"/>
       <c r="B52" s="4"/>
       <c r="C52" s="35" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D52" s="35" t="s">
         <v>56</v>
@@ -6267,7 +6695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E41FDF-19ED-4A65-B0F7-DB9E96A3E4AA}">
   <dimension ref="A2:U134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -9255,4 +9683,2205 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6E71E6-9E30-4A02-9BCC-658AA42024A5}">
+  <dimension ref="A2:U120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4"/>
+      <c r="B5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="26"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="26"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="26"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="26"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="26"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="26"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="26"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="26"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="26"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="26"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="26"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="4"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="4"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="4"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="4"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="4"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="73" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="20"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="21"/>
+      <c r="B75" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="22"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="21"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="22"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="21"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="22"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="21"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="22"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="21"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="22"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="21"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="22"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="21"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="22"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="21"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="22"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="21"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="22"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="21"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="22"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="21"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="22"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="21"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="22"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="21"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="22"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="21"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="22"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="21"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="22"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="21"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="22"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="21"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="22"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="21"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="22"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="21"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="22"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="21"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="22"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="21"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="22"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="21"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="22"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="21"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="22"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="21"/>
+      <c r="B98" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="22"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="21"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="22"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="21"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="22"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="21"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="22"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="21"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="22"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="21"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="22"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="21"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="22"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="21"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="22"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="21"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="22"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="21"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="22"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="21"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="22"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="21"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="22"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="21"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="22"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="21"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="22"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="21"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="22"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="21"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="22"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="21"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="22"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="21"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="22"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="21"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="22"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="21"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="11"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="22"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="21"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="22"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="21"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="22"/>
+    </row>
+    <row r="120" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A120" s="23"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="24"/>
+      <c r="Q120" s="24"/>
+      <c r="R120" s="24"/>
+      <c r="S120" s="24"/>
+      <c r="T120" s="24"/>
+      <c r="U120" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
+++ b/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA2962-7A8C-45CB-8437-D17EB3202637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CE4E0-2981-4AD9-AF02-689C38C970F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enable URL rewriting" sheetId="1" r:id="rId1"/>
     <sheet name="The front controller" sheetId="2" r:id="rId2"/>
     <sheet name="use client for API development" sheetId="3" r:id="rId3"/>
     <sheet name="Set the HTTP status code" sheetId="4" r:id="rId4"/>
+    <sheet name="controller to decide response" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="145">
   <si>
     <t>rest-api-php</t>
   </si>
@@ -1102,6 +1103,302 @@
   </si>
   <si>
     <t>status: 404</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Add a controller class to decide the response</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TaskController.php</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\TaskController.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>class TaskController</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    public function processRequest($method, $id)</t>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>        if ($id === null) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>            if ($method == "GET") {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t>                echo "index";</t>
+  </si>
+  <si>
+    <t>            } elseif ($method == "POST") {</t>
+  </si>
+  <si>
+    <t>                echo "create";</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>        } else {</t>
+  </si>
+  <si>
+    <t>            switch ($method) {</t>
+  </si>
+  <si>
+    <t>                case "GET":</t>
+  </si>
+  <si>
+    <t>                    echo "show $id";</t>
+  </si>
+  <si>
+    <t>                    break;</t>
+  </si>
+  <si>
+    <t>                case "PATCH":</t>
+  </si>
+  <si>
+    <t>                    echo "update $id";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t>                case "DELETE":</t>
+  </si>
+  <si>
+    <t>                    echo "delete $id";</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>require dirname(__DIR__) . "/src/TaskController.php";</t>
+  </si>
+  <si>
+    <t>$controller = new TaskController;</t>
+  </si>
+  <si>
+    <t>$controller-&gt;processRequest($_SERVER['REQUEST_METHOD'], $id);</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lý t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i các tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>p request method và url khác nhau</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PUT or PATCH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/tasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/tasks/123</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Check postman</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>show $id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://localhost/api/tasks/123</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>update $id</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3096,6 +3393,399 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119529</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514688</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>179640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84151313-231B-CCFA-FD11-B87DB1019116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="776941" y="21403236"/>
+          <a:ext cx="12228571" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF86A70-6CB5-F2CD-E563-F49B4F25C461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1740647" y="14769353"/>
+          <a:ext cx="82177" cy="10541000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82177</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>351117</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>20452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D79D1C-B5A3-1B27-38A3-9B825C0EF91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739589" y="27409588"/>
+          <a:ext cx="12102352" cy="4801629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55ABFD0-3E00-68CB-AF1C-BF51FB21AFD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1942353" y="15516412"/>
+          <a:ext cx="7471" cy="16031882"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>440764</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>61032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAC3C2A-9D9A-7128-FDF0-2729818ED169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769471" y="33647530"/>
+          <a:ext cx="12162117" cy="4625561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>216647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A08948A-9E55-1DB4-77B3-338650B44240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2129118" y="17092706"/>
+          <a:ext cx="7470" cy="20641235"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>183288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2328CB-A449-B360-E9D0-317B7F0A1C2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="39384941"/>
+          <a:ext cx="12042588" cy="4568523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2606710C-694C-487E-7490-45A3CE17370D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1987176" y="18019059"/>
+          <a:ext cx="276412" cy="25287941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3361,7 +4051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Z140"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T131" sqref="T131"/>
     </sheetView>
   </sheetViews>
@@ -5742,7 +6432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C71544-BA52-4DDB-B461-280B3FEBAA7F}">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -6695,7 +7385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E41FDF-19ED-4A65-B0F7-DB9E96A3E4AA}">
   <dimension ref="A2:U134"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -9689,8 +10379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6E71E6-9E30-4A02-9BCC-658AA42024A5}">
   <dimension ref="A2:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11884,4 +12574,3396 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A759A337-9404-452E-93C2-F28B34BEB2C5}">
+  <dimension ref="A2:U192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="26"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="26"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="26"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="26"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="4"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="46"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="46"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="4"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="89" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="20"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="21"/>
+      <c r="B91" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="22"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="21"/>
+      <c r="B92" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="22"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="21"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="22"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="21"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="22"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="21"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="22"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="21"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="22"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="21"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="22"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="21"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="22"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="21"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="22"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="21"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="22"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="21"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="22"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="21"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="22"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="21"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="22"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="21"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="22"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="21"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="22"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="21"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="22"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="21"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="22"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="21"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="22"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="21"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="22"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="21"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="22"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="21"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="22"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="21"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="22"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="21"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="22"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="21"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="22"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="21"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="11"/>
+      <c r="U115" s="22"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="21"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="11"/>
+      <c r="U116" s="22"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="21"/>
+      <c r="B117" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="22"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="21"/>
+      <c r="B118" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="22"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="21"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="22"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="21"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="22"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="21"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="22"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="21"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="22"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="21"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="11"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="22"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="21"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="22"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="21"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="22"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="21"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="11"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="22"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="21"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="22"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="21"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="22"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="21"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="11"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="22"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="21"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="22"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="21"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="22"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="21"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="22"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="21"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="22"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="21"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="22"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="21"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="22"/>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="21"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="22"/>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="21"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="22"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="21"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="22"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="21"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="22"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="21"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="22"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="21"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="6"/>
+      <c r="U141" s="22"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="21"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="11"/>
+      <c r="U142" s="22"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="21"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="11"/>
+      <c r="U143" s="22"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="21"/>
+      <c r="B144" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="22"/>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="21"/>
+      <c r="B145" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="22"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="21"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="22"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="21"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="22"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="21"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="22"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="21"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="22"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="21"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="22"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="21"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="11"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="22"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="21"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="22"/>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="21"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="22"/>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="21"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
+      <c r="S154" s="11"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="22"/>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="21"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="22"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="21"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="22"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="21"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11"/>
+      <c r="S157" s="11"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="22"/>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="21"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="22"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="21"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="22"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="21"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="11"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="22"/>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="21"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="22"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="21"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11"/>
+      <c r="S162" s="11"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="22"/>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="21"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11"/>
+      <c r="S163" s="11"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="22"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="21"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
+      <c r="Q164" s="11"/>
+      <c r="R164" s="11"/>
+      <c r="S164" s="11"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="22"/>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="21"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="11"/>
+      <c r="R165" s="11"/>
+      <c r="S165" s="11"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="22"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="21"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+      <c r="Q166" s="8"/>
+      <c r="R166" s="8"/>
+      <c r="S166" s="8"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="22"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="21"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="11"/>
+      <c r="S167" s="11"/>
+      <c r="T167" s="11"/>
+      <c r="U167" s="22"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="21"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11"/>
+      <c r="Q168" s="11"/>
+      <c r="R168" s="11"/>
+      <c r="S168" s="11"/>
+      <c r="T168" s="11"/>
+      <c r="U168" s="22"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="21"/>
+      <c r="B169" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="22"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="21"/>
+      <c r="B170" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="11"/>
+      <c r="S170" s="11"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="22"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="21"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11"/>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="11"/>
+      <c r="S171" s="11"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="22"/>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="21"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="11"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="22"/>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="21"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="11"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="22"/>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="21"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
+      <c r="Q174" s="11"/>
+      <c r="R174" s="11"/>
+      <c r="S174" s="11"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="22"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="21"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="22"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="21"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="11"/>
+      <c r="S176" s="11"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="22"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="21"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="11"/>
+      <c r="S177" s="11"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="22"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="21"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="11"/>
+      <c r="S178" s="11"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="22"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="21"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="22"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="21"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="11"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="22"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="21"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
+      <c r="Q181" s="11"/>
+      <c r="R181" s="11"/>
+      <c r="S181" s="11"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="22"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="21"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
+      <c r="Q182" s="11"/>
+      <c r="R182" s="11"/>
+      <c r="S182" s="11"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="22"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="21"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="11"/>
+      <c r="N183" s="11"/>
+      <c r="O183" s="11"/>
+      <c r="P183" s="11"/>
+      <c r="Q183" s="11"/>
+      <c r="R183" s="11"/>
+      <c r="S183" s="11"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="22"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="21"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="11"/>
+      <c r="S184" s="11"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="22"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="21"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="11"/>
+      <c r="S185" s="11"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="22"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="21"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
+      <c r="Q186" s="11"/>
+      <c r="R186" s="11"/>
+      <c r="S186" s="11"/>
+      <c r="T186" s="5"/>
+      <c r="U186" s="22"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="21"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="11"/>
+      <c r="S187" s="11"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="22"/>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="21"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="11"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11"/>
+      <c r="Q188" s="11"/>
+      <c r="R188" s="11"/>
+      <c r="S188" s="11"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="22"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="21"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="11"/>
+      <c r="S189" s="11"/>
+      <c r="T189" s="5"/>
+      <c r="U189" s="22"/>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="21"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="11"/>
+      <c r="S190" s="11"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="22"/>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="21"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="8"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="8"/>
+      <c r="N191" s="8"/>
+      <c r="O191" s="8"/>
+      <c r="P191" s="8"/>
+      <c r="Q191" s="8"/>
+      <c r="R191" s="8"/>
+      <c r="S191" s="8"/>
+      <c r="T191" s="6"/>
+      <c r="U191" s="22"/>
+    </row>
+    <row r="192" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A192" s="23"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="24"/>
+      <c r="I192" s="24"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="24"/>
+      <c r="L192" s="24"/>
+      <c r="M192" s="24"/>
+      <c r="N192" s="24"/>
+      <c r="O192" s="24"/>
+      <c r="P192" s="24"/>
+      <c r="Q192" s="24"/>
+      <c r="R192" s="24"/>
+      <c r="S192" s="24"/>
+      <c r="T192" s="24"/>
+      <c r="U192" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
+++ b/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CE4E0-2981-4AD9-AF02-689C38C970F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18ED880-1EB1-43E7-A46E-FB19B4306F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enable URL rewriting" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="use client for API development" sheetId="3" r:id="rId3"/>
     <sheet name="Set the HTTP status code" sheetId="4" r:id="rId4"/>
     <sheet name="controller to decide response" sheetId="5" r:id="rId5"/>
+    <sheet name="load classes automatically" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
   <si>
     <t>rest-api-php</t>
   </si>
@@ -111,7 +110,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,7 +128,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -144,7 +143,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +158,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,7 +242,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -253,7 +252,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -289,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,7 +298,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,7 +414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -435,7 +434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -455,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -475,7 +474,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -509,7 +508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,7 +528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,7 +688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -709,7 +708,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -729,7 +728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -763,7 +762,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -783,7 +782,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,7 +802,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -843,7 +842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -863,7 +862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -883,7 +882,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -958,7 +957,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -978,7 +977,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -998,7 +997,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1038,7 +1037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1247,7 +1246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1267,7 +1266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,7 +1286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1401,23 +1400,71 @@
     <t>update $id</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Use Composer's autoloader to load classes automatically</t>
+  </si>
+  <si>
+    <t>load các class trong folder src 1 cách tự động</t>
+  </si>
+  <si>
+    <t>https://getcomposer.org/doc/01-basic-usage.md#autoloading</t>
+  </si>
+  <si>
+    <t>Autoloading</t>
+  </si>
+  <si>
+    <t>composer.json</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\composer.json</t>
+  </si>
+  <si>
+    <t>    "autoload": {</t>
+  </si>
+  <si>
+    <t>        "psr-4": {</t>
+  </si>
+  <si>
+    <t>            "": "src/"</t>
+  </si>
+  <si>
+    <t>composer dump-autoload</t>
+  </si>
+  <si>
+    <t>Generate the autoload script</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>is generated</t>
+  </si>
+  <si>
+    <t>require dirname(__DIR__) . "/vendor/autoload.php";</t>
+  </si>
+  <si>
+    <t>Sẽ tự động load các Class có trong folder src, hiện tại mới chỉ có class TaskController.php</t>
+  </si>
+  <si>
+    <t>Check by call api</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1430,7 +1477,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1452,7 +1499,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1702,7 +1749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1751,9 +1798,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3786,6 +3834,249 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>322456</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>75493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CB43D0-A6D7-9B6E-5224-C6916032F045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="1466850"/>
+          <a:ext cx="11152381" cy="5657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>399095</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>161551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9DF2E2-BC93-2A4F-84AF-025567F40FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13744575"/>
+          <a:ext cx="7638095" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620D0F52-4130-22B0-B21F-BF6A2AE692CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="13535025"/>
+          <a:ext cx="2266950" cy="6905625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD495DA-BDBA-C0C2-688F-FBD8D6499866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2466975" y="21897975"/>
+          <a:ext cx="7353300" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360698</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>37738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D637FF-C0B5-ECAF-C79F-D64154E5D00E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="26098500"/>
+          <a:ext cx="10019048" cy="2895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4055,9 +4346,9 @@
       <selection activeCell="T131" sqref="T131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:20">
       <c r="B3" s="13" t="s">
         <v>38</v>
       </c>
@@ -4069,7 +4360,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:20">
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
@@ -4081,7 +4372,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:20">
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
@@ -4093,7 +4384,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:20">
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
@@ -4105,7 +4396,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:20">
       <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
@@ -4117,7 +4408,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:20">
       <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
@@ -4129,7 +4420,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:20">
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
@@ -4141,7 +4432,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:20">
       <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
@@ -4153,7 +4444,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:20">
       <c r="B11" s="7" t="s">
         <v>45</v>
       </c>
@@ -4165,7 +4456,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:20">
       <c r="B14" s="13" t="s">
         <v>31</v>
       </c>
@@ -4188,7 +4479,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:20">
       <c r="B15" s="16"/>
       <c r="C15" s="11" t="s">
         <v>30</v>
@@ -4211,7 +4502,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:20">
       <c r="B16" s="16"/>
       <c r="C16" s="15" t="s">
         <v>46</v>
@@ -4234,7 +4525,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:20">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -4255,7 +4546,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:20">
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -4276,7 +4567,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:20">
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -4297,7 +4588,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:20">
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -4318,7 +4609,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:20">
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -4339,7 +4630,7 @@
       <c r="S21" s="11"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:20">
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -4360,7 +4651,7 @@
       <c r="S22" s="11"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:20">
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -4381,7 +4672,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:20">
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -4402,7 +4693,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:20">
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -4423,7 +4714,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:20">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -4444,7 +4735,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:20">
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -4465,7 +4756,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:20">
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -4486,7 +4777,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:20">
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -4507,7 +4798,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:20">
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -4528,7 +4819,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:20">
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -4549,7 +4840,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:20">
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -4570,7 +4861,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:20">
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -4591,7 +4882,7 @@
       <c r="S33" s="11"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:20">
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -4612,7 +4903,7 @@
       <c r="S34" s="11"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:20">
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -4633,7 +4924,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:20">
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -4654,7 +4945,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:20">
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -4675,7 +4966,7 @@
       <c r="S37" s="11"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:20">
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -4696,7 +4987,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:20">
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -4717,7 +5008,7 @@
       <c r="S39" s="11"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:20">
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -4738,7 +5029,7 @@
       <c r="S40" s="11"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:20">
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -4759,7 +5050,7 @@
       <c r="S41" s="11"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:20">
       <c r="B42" s="14"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -4780,7 +5071,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:20">
       <c r="B45" s="13" t="s">
         <v>37</v>
       </c>
@@ -4803,7 +5094,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:20">
       <c r="B46" s="4" t="s">
         <v>32</v>
       </c>
@@ -4826,7 +5117,7 @@
       <c r="S46" s="11"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:20">
       <c r="B47" s="4" t="s">
         <v>33</v>
       </c>
@@ -4849,7 +5140,7 @@
       <c r="S47" s="11"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:20">
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -4870,7 +5161,7 @@
       <c r="S48" s="11"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:20">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -4891,7 +5182,7 @@
       <c r="S49" s="11"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:20">
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -4912,7 +5203,7 @@
       <c r="S50" s="11"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:20">
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -4933,7 +5224,7 @@
       <c r="S51" s="11"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:20">
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -4954,7 +5245,7 @@
       <c r="S52" s="11"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:20">
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -4975,7 +5266,7 @@
       <c r="S53" s="11"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:20">
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -4996,7 +5287,7 @@
       <c r="S54" s="11"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:20">
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -5017,7 +5308,7 @@
       <c r="S55" s="11"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:20">
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -5038,7 +5329,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="5"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:20">
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -5059,7 +5350,7 @@
       <c r="S57" s="11"/>
       <c r="T57" s="5"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:20">
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -5080,7 +5371,7 @@
       <c r="S58" s="11"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:20">
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -5101,7 +5392,7 @@
       <c r="S59" s="11"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:20">
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -5122,7 +5413,7 @@
       <c r="S60" s="11"/>
       <c r="T60" s="5"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:20">
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -5143,7 +5434,7 @@
       <c r="S61" s="11"/>
       <c r="T61" s="5"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:20">
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -5164,7 +5455,7 @@
       <c r="S62" s="11"/>
       <c r="T62" s="5"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:20">
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -5185,7 +5476,7 @@
       <c r="S63" s="11"/>
       <c r="T63" s="5"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:20">
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -5206,7 +5497,7 @@
       <c r="S64" s="11"/>
       <c r="T64" s="5"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:20">
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -5227,7 +5518,7 @@
       <c r="S65" s="11"/>
       <c r="T65" s="5"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:20">
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -5248,7 +5539,7 @@
       <c r="S66" s="11"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:20">
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -5269,7 +5560,7 @@
       <c r="S67" s="11"/>
       <c r="T67" s="5"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:20">
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -5290,7 +5581,7 @@
       <c r="S68" s="11"/>
       <c r="T68" s="5"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:20">
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -5311,7 +5602,7 @@
       <c r="S69" s="11"/>
       <c r="T69" s="5"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:20">
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -5332,7 +5623,7 @@
       <c r="S70" s="11"/>
       <c r="T70" s="5"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:20">
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -5353,7 +5644,7 @@
       <c r="S71" s="11"/>
       <c r="T71" s="5"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:20">
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -5374,7 +5665,7 @@
       <c r="S72" s="11"/>
       <c r="T72" s="5"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:20">
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -5395,7 +5686,7 @@
       <c r="S73" s="11"/>
       <c r="T73" s="5"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:20">
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -5416,7 +5707,7 @@
       <c r="S74" s="11"/>
       <c r="T74" s="5"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:20">
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -5437,7 +5728,7 @@
       <c r="S75" s="11"/>
       <c r="T75" s="5"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:20">
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -5458,7 +5749,7 @@
       <c r="S76" s="11"/>
       <c r="T76" s="5"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:20">
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -5479,7 +5770,7 @@
       <c r="S77" s="11"/>
       <c r="T77" s="5"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:20">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -5500,12 +5791,12 @@
       <c r="S78" s="8"/>
       <c r="T78" s="6"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:12">
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
@@ -5518,7 +5809,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:12">
       <c r="B83" s="4"/>
       <c r="C83" s="11" t="s">
         <v>1</v>
@@ -5531,7 +5822,7 @@
       <c r="I83" s="11"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:12">
       <c r="B84" s="4"/>
       <c r="C84" s="11" t="s">
         <v>2</v>
@@ -5544,7 +5835,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:12">
       <c r="B85" s="4"/>
       <c r="C85" s="11" t="s">
         <v>3</v>
@@ -5557,7 +5848,7 @@
       <c r="I85" s="11"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:12">
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11" t="s">
@@ -5570,7 +5861,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:12">
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5583,7 +5874,7 @@
       <c r="I87" s="11"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:12">
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -5596,7 +5887,7 @@
       <c r="I88" s="11"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:12">
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="s">
@@ -5609,7 +5900,7 @@
       <c r="I89" s="11"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:12">
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
       <c r="D90" s="12" t="s">
@@ -5622,7 +5913,7 @@
       <c r="I90" s="11"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:12">
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
       <c r="D91" s="10" t="s">
@@ -5641,7 +5932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:12">
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
       <c r="D92" s="10"/>
@@ -5660,7 +5951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:12">
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
       <c r="D93" s="10"/>
@@ -5679,7 +5970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:12">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="9"/>
@@ -5692,12 +5983,12 @@
       <c r="I94" s="8"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:26">
       <c r="B98" s="1" t="s">
         <v>17</v>
       </c>
@@ -5706,7 +5997,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:26">
       <c r="B99" s="4" t="s">
         <v>18</v>
       </c>
@@ -5743,7 +6034,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:26">
       <c r="B100" s="4" t="s">
         <v>19</v>
       </c>
@@ -5780,7 +6071,7 @@
       <c r="Y100" s="11"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:26">
       <c r="B101" s="4" t="s">
         <v>20</v>
       </c>
@@ -5817,7 +6108,7 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="6"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:26">
       <c r="B102" s="7" t="s">
         <v>21</v>
       </c>
@@ -5832,12 +6123,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:26">
       <c r="B106" s="1" t="s">
         <v>27</v>
       </c>
@@ -5845,13 +6136,13 @@
       <c r="D106" s="2"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:26">
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:26">
       <c r="B108" s="7" t="s">
         <v>28</v>
       </c>
@@ -5859,8 +6150,8 @@
       <c r="D108" s="8"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="110" spans="1:26" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:26" ht="15.75" thickBot="1"/>
+    <row r="111" spans="1:26">
       <c r="A111" s="18" t="s">
         <v>29</v>
       </c>
@@ -5880,7 +6171,7 @@
       <c r="O111" s="19"/>
       <c r="P111" s="20"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:26">
       <c r="A112" s="21"/>
       <c r="B112" s="13" t="s">
         <v>31</v>
@@ -5900,7 +6191,7 @@
       <c r="O112" s="11"/>
       <c r="P112" s="22"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:16">
       <c r="A113" s="21"/>
       <c r="B113" s="17" t="s">
         <v>46</v>
@@ -5920,7 +6211,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="22"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:16">
       <c r="A114" s="21"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5938,7 +6229,7 @@
       <c r="O114" s="11"/>
       <c r="P114" s="22"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:16">
       <c r="A115" s="21"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5956,7 +6247,7 @@
       <c r="O115" s="11"/>
       <c r="P115" s="22"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:16">
       <c r="A116" s="21"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5974,7 +6265,7 @@
       <c r="O116" s="11"/>
       <c r="P116" s="22"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:16">
       <c r="A117" s="21"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5992,7 +6283,7 @@
       <c r="O117" s="11"/>
       <c r="P117" s="22"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:16">
       <c r="A118" s="21"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -6010,7 +6301,7 @@
       <c r="O118" s="11"/>
       <c r="P118" s="22"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:16">
       <c r="A119" s="21"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -6028,7 +6319,7 @@
       <c r="O119" s="11"/>
       <c r="P119" s="22"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:16">
       <c r="A120" s="21"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -6046,7 +6337,7 @@
       <c r="O120" s="11"/>
       <c r="P120" s="22"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:16">
       <c r="A121" s="21"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6064,7 +6355,7 @@
       <c r="O121" s="11"/>
       <c r="P121" s="22"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:16">
       <c r="A122" s="21"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6082,7 +6373,7 @@
       <c r="O122" s="11"/>
       <c r="P122" s="22"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:16">
       <c r="A123" s="21"/>
       <c r="B123" s="13" t="s">
         <v>37</v>
@@ -6102,7 +6393,7 @@
       <c r="O123" s="11"/>
       <c r="P123" s="22"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:16">
       <c r="A124" s="21"/>
       <c r="B124" s="17" t="s">
         <v>47</v>
@@ -6126,7 +6417,7 @@
       <c r="O124" s="11"/>
       <c r="P124" s="22"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:16">
       <c r="A125" s="21"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -6144,7 +6435,7 @@
       <c r="O125" s="11"/>
       <c r="P125" s="22"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:16">
       <c r="A126" s="21"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -6162,7 +6453,7 @@
       <c r="O126" s="11"/>
       <c r="P126" s="22"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:16">
       <c r="A127" s="21"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -6180,7 +6471,7 @@
       <c r="O127" s="11"/>
       <c r="P127" s="22"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:16">
       <c r="A128" s="21"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -6198,7 +6489,7 @@
       <c r="O128" s="11"/>
       <c r="P128" s="22"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:16">
       <c r="A129" s="21"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -6216,7 +6507,7 @@
       <c r="O129" s="11"/>
       <c r="P129" s="22"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:16">
       <c r="A130" s="21"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -6234,7 +6525,7 @@
       <c r="O130" s="11"/>
       <c r="P130" s="22"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:16">
       <c r="A131" s="21"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -6252,7 +6543,7 @@
       <c r="O131" s="11"/>
       <c r="P131" s="22"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:16">
       <c r="A132" s="21"/>
       <c r="B132" s="17" t="s">
         <v>48</v>
@@ -6276,7 +6567,7 @@
       <c r="O132" s="11"/>
       <c r="P132" s="22"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:16">
       <c r="A133" s="21"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -6294,7 +6585,7 @@
       <c r="O133" s="11"/>
       <c r="P133" s="22"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:16">
       <c r="A134" s="21"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -6312,7 +6603,7 @@
       <c r="O134" s="11"/>
       <c r="P134" s="22"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:16">
       <c r="A135" s="21"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -6330,7 +6621,7 @@
       <c r="O135" s="11"/>
       <c r="P135" s="22"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:16">
       <c r="A136" s="21"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -6348,7 +6639,7 @@
       <c r="O136" s="11"/>
       <c r="P136" s="22"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:16">
       <c r="A137" s="21"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -6366,7 +6657,7 @@
       <c r="O137" s="11"/>
       <c r="P137" s="22"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:16">
       <c r="A138" s="21"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -6384,7 +6675,7 @@
       <c r="O138" s="11"/>
       <c r="P138" s="22"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:16">
       <c r="A139" s="21"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -6402,7 +6693,7 @@
       <c r="O139" s="11"/>
       <c r="P139" s="22"/>
     </row>
-    <row r="140" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:16" ht="15.75" thickBot="1">
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
@@ -6436,28 +6727,28 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12">
       <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
@@ -6473,7 +6764,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
         <v>0</v>
@@ -6489,7 +6780,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12">
       <c r="A8" s="26"/>
       <c r="B8" s="30"/>
       <c r="C8" s="12" t="s">
@@ -6505,7 +6796,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12">
       <c r="A9" s="26"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12" t="s">
@@ -6521,7 +6812,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12">
       <c r="A10" s="26"/>
       <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
@@ -6537,7 +6828,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12">
       <c r="A11" s="26"/>
       <c r="B11" s="30"/>
       <c r="C11" s="12"/>
@@ -6553,7 +6844,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12">
       <c r="A12" s="26"/>
       <c r="B12" s="30"/>
       <c r="C12" s="12"/>
@@ -6569,7 +6860,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
@@ -6585,7 +6876,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12">
       <c r="A14" s="26"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12"/>
@@ -6601,7 +6892,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12">
       <c r="A15" s="26"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
@@ -6617,7 +6908,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12">
       <c r="A16" s="26"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12"/>
@@ -6633,7 +6924,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13">
       <c r="A17" s="26"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
@@ -6649,7 +6940,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13">
       <c r="A18" s="26"/>
       <c r="B18" s="30"/>
       <c r="C18" s="12"/>
@@ -6663,7 +6954,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13">
       <c r="A19" s="26"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
@@ -6683,12 +6974,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -6699,7 +6990,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13">
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -6708,7 +6999,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13">
       <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
@@ -6728,7 +7019,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -6741,7 +7032,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13">
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -6756,7 +7047,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13">
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -6769,7 +7060,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13">
       <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
@@ -6789,7 +7080,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13">
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -6802,7 +7093,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13">
       <c r="B31" s="4" t="s">
         <v>53</v>
       </c>
@@ -6822,7 +7113,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13">
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -6835,7 +7126,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13">
       <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
@@ -6850,7 +7141,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13">
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -6863,7 +7154,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13">
       <c r="B35" s="7" t="s">
         <v>55</v>
       </c>
@@ -6883,8 +7174,8 @@
       <c r="L35" s="8"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:13">
       <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
@@ -6900,7 +7191,7 @@
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13">
       <c r="A39" s="21"/>
       <c r="B39" s="13" t="s">
         <v>60</v>
@@ -6916,7 +7207,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13">
       <c r="A40" s="21"/>
       <c r="B40" s="17" t="s">
         <v>84</v>
@@ -6932,7 +7223,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13">
       <c r="A41" s="21"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -6946,7 +7237,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13">
       <c r="A42" s="21"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -6960,7 +7251,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13">
       <c r="A43" s="21"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -6974,7 +7265,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13">
       <c r="A44" s="21"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -6988,7 +7279,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13">
       <c r="A45" s="21"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -7002,7 +7293,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13">
       <c r="A46" s="21"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -7016,7 +7307,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13">
       <c r="A47" s="21"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -7030,7 +7321,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13">
       <c r="A48" s="21"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -7044,7 +7335,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12">
       <c r="A49" s="21"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -7058,7 +7349,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12">
       <c r="A50" s="21"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -7072,7 +7363,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12">
       <c r="A51" s="21"/>
       <c r="B51" s="4"/>
       <c r="C51" s="39" t="s">
@@ -7094,7 +7385,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12">
       <c r="A52" s="21"/>
       <c r="B52" s="4"/>
       <c r="C52" s="35" t="s">
@@ -7116,7 +7407,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12">
       <c r="A53" s="21"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -7130,7 +7421,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12">
       <c r="A54" s="21"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -7144,7 +7435,7 @@
       <c r="K54" s="11"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12">
       <c r="A55" s="21"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -7158,7 +7449,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12">
       <c r="A56" s="21"/>
       <c r="B56" s="13" t="s">
         <v>68</v>
@@ -7174,7 +7465,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12">
       <c r="A57" s="21"/>
       <c r="B57" s="44" t="s">
         <v>48</v>
@@ -7190,7 +7481,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12">
       <c r="A58" s="21"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -7204,7 +7495,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12">
       <c r="A59" s="21"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -7218,7 +7509,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12">
       <c r="A60" s="21"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -7232,7 +7523,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12">
       <c r="A61" s="21"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -7246,7 +7537,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12">
       <c r="A62" s="21"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -7260,7 +7551,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12">
       <c r="A63" s="21"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -7274,7 +7565,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="22"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12">
       <c r="A64" s="21"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -7288,7 +7579,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12">
       <c r="A65" s="21"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -7302,7 +7593,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12">
       <c r="A66" s="21"/>
       <c r="B66" s="4"/>
       <c r="C66" s="39" t="s">
@@ -7324,7 +7615,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12">
       <c r="A67" s="21"/>
       <c r="B67" s="4"/>
       <c r="C67" s="35" t="s">
@@ -7346,7 +7637,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12">
       <c r="A68" s="21"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
@@ -7360,7 +7651,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:12" ht="15.75" thickBot="1">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -7389,20 +7680,20 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" ht="16.5">
       <c r="B2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21">
       <c r="B3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:21">
       <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
@@ -7427,7 +7718,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21">
       <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
@@ -7452,7 +7743,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="22"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21">
       <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>73</v>
@@ -7477,7 +7768,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="22"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>74</v>
@@ -7502,7 +7793,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="22"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21">
       <c r="A9" s="21"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11" t="s">
@@ -7527,7 +7818,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="22"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21">
       <c r="A10" s="21"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
@@ -7550,7 +7841,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21">
       <c r="A11" s="21"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -7573,7 +7864,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21">
       <c r="A12" s="21"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
@@ -7596,7 +7887,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21">
       <c r="A13" s="21"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
@@ -7619,7 +7910,7 @@
       <c r="T13" s="5"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21">
       <c r="A14" s="21"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
@@ -7642,7 +7933,7 @@
       <c r="T14" s="5"/>
       <c r="U14" s="22"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21">
       <c r="A15" s="21"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
@@ -7665,7 +7956,7 @@
       <c r="T15" s="5"/>
       <c r="U15" s="22"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21">
       <c r="A16" s="21"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
@@ -7688,7 +7979,7 @@
       <c r="T16" s="5"/>
       <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21">
       <c r="A17" s="21"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -7711,7 +8002,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="22"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21">
       <c r="A18" s="21"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -7734,7 +8025,7 @@
       <c r="T18" s="5"/>
       <c r="U18" s="22"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21">
       <c r="A19" s="21"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -7757,7 +8048,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="22"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21">
       <c r="A20" s="21"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
@@ -7780,7 +8071,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="22"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21">
       <c r="A21" s="21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -7803,7 +8094,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="22"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21">
       <c r="A22" s="21"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -7826,7 +8117,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="22"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21">
       <c r="A23" s="21"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -7849,7 +8140,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="22"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" ht="18.75">
       <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
         <v>79</v>
@@ -7874,7 +8165,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="22"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21">
       <c r="A25" s="21"/>
       <c r="B25" s="4" t="s">
         <v>78</v>
@@ -7899,7 +8190,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="22"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21">
       <c r="A26" s="21"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
@@ -7922,7 +8213,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="22"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21">
       <c r="A27" s="21"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -7945,7 +8236,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="22"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21">
       <c r="A28" s="21"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -7968,7 +8259,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="22"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21">
       <c r="A29" s="21"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -7991,7 +8282,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="22"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21">
       <c r="A30" s="21"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -8014,7 +8305,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="22"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21">
       <c r="A31" s="21"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -8037,7 +8328,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="22"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21">
       <c r="A32" s="21"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -8060,7 +8351,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="22"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21">
       <c r="A33" s="21"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -8083,7 +8374,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="22"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21">
       <c r="A34" s="21"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -8106,7 +8397,7 @@
       <c r="T34" s="11"/>
       <c r="U34" s="22"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21">
       <c r="A35" s="21"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -8129,7 +8420,7 @@
       <c r="T35" s="11"/>
       <c r="U35" s="22"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21">
       <c r="A36" s="21"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -8152,7 +8443,7 @@
       <c r="T36" s="11"/>
       <c r="U36" s="22"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21">
       <c r="A37" s="21"/>
       <c r="B37" s="4" t="s">
         <v>80</v>
@@ -8177,7 +8468,7 @@
       <c r="T37" s="11"/>
       <c r="U37" s="22"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21">
       <c r="A38" s="21"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -8200,7 +8491,7 @@
       <c r="T38" s="11"/>
       <c r="U38" s="22"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:21">
       <c r="A39" s="21"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -8223,7 +8514,7 @@
       <c r="T39" s="11"/>
       <c r="U39" s="22"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:21">
       <c r="A40" s="21"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -8246,7 +8537,7 @@
       <c r="T40" s="11"/>
       <c r="U40" s="22"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21">
       <c r="A41" s="21"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -8269,7 +8560,7 @@
       <c r="T41" s="11"/>
       <c r="U41" s="22"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21">
       <c r="A42" s="21"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -8292,7 +8583,7 @@
       <c r="T42" s="11"/>
       <c r="U42" s="22"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21">
       <c r="A43" s="21"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -8315,7 +8606,7 @@
       <c r="T43" s="11"/>
       <c r="U43" s="22"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21">
       <c r="A44" s="21"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -8338,7 +8629,7 @@
       <c r="T44" s="11"/>
       <c r="U44" s="22"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:21">
       <c r="A45" s="21"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -8361,7 +8652,7 @@
       <c r="T45" s="11"/>
       <c r="U45" s="22"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:21">
       <c r="A46" s="21"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -8384,7 +8675,7 @@
       <c r="T46" s="11"/>
       <c r="U46" s="22"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:21">
       <c r="A47" s="21"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -8407,7 +8698,7 @@
       <c r="T47" s="11"/>
       <c r="U47" s="22"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:21">
       <c r="A48" s="21"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -8430,7 +8721,7 @@
       <c r="T48" s="11"/>
       <c r="U48" s="22"/>
     </row>
-    <row r="49" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -8453,8 +8744,8 @@
       <c r="T49" s="24"/>
       <c r="U49" s="25"/>
     </row>
-    <row r="51" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="52" spans="1:21">
       <c r="A52" s="18" t="s">
         <v>81</v>
       </c>
@@ -8479,7 +8770,7 @@
       <c r="T52" s="19"/>
       <c r="U52" s="20"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:21">
       <c r="A53" s="21"/>
       <c r="B53" s="15" t="s">
         <v>82</v>
@@ -8504,7 +8795,7 @@
       <c r="T53" s="11"/>
       <c r="U53" s="22"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21">
       <c r="A54" s="21"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -8527,7 +8818,7 @@
       <c r="T54" s="11"/>
       <c r="U54" s="22"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:21">
       <c r="A55" s="21"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -8550,7 +8841,7 @@
       <c r="T55" s="11"/>
       <c r="U55" s="22"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:21">
       <c r="A56" s="21"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -8573,7 +8864,7 @@
       <c r="T56" s="11"/>
       <c r="U56" s="22"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21">
       <c r="A57" s="21"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -8596,7 +8887,7 @@
       <c r="T57" s="11"/>
       <c r="U57" s="22"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21">
       <c r="A58" s="21"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -8619,7 +8910,7 @@
       <c r="T58" s="11"/>
       <c r="U58" s="22"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:21">
       <c r="A59" s="21"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -8642,7 +8933,7 @@
       <c r="T59" s="11"/>
       <c r="U59" s="22"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:21">
       <c r="A60" s="21"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -8665,7 +8956,7 @@
       <c r="T60" s="11"/>
       <c r="U60" s="22"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:21">
       <c r="A61" s="21"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -8688,7 +8979,7 @@
       <c r="T61" s="11"/>
       <c r="U61" s="22"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:21">
       <c r="A62" s="21"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -8711,7 +9002,7 @@
       <c r="T62" s="11"/>
       <c r="U62" s="22"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:21">
       <c r="A63" s="21"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -8734,7 +9025,7 @@
       <c r="T63" s="11"/>
       <c r="U63" s="22"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:21">
       <c r="A64" s="21"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -8757,7 +9048,7 @@
       <c r="T64" s="11"/>
       <c r="U64" s="22"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:21">
       <c r="A65" s="21"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -8780,7 +9071,7 @@
       <c r="T65" s="11"/>
       <c r="U65" s="22"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:21">
       <c r="A66" s="21"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -8803,7 +9094,7 @@
       <c r="T66" s="11"/>
       <c r="U66" s="22"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:21">
       <c r="A67" s="21"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -8826,7 +9117,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="22"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:21">
       <c r="A68" s="21"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8849,7 +9140,7 @@
       <c r="T68" s="11"/>
       <c r="U68" s="22"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:21">
       <c r="A69" s="21"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8872,7 +9163,7 @@
       <c r="T69" s="11"/>
       <c r="U69" s="22"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:21">
       <c r="A70" s="21"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8895,7 +9186,7 @@
       <c r="T70" s="11"/>
       <c r="U70" s="22"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:21">
       <c r="A71" s="21"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -8918,7 +9209,7 @@
       <c r="T71" s="11"/>
       <c r="U71" s="22"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:21">
       <c r="A72" s="21"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -8941,7 +9232,7 @@
       <c r="T72" s="11"/>
       <c r="U72" s="22"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:21">
       <c r="A73" s="21"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -8964,7 +9255,7 @@
       <c r="T73" s="11"/>
       <c r="U73" s="22"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:21">
       <c r="A74" s="21"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -8987,7 +9278,7 @@
       <c r="T74" s="11"/>
       <c r="U74" s="22"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:21">
       <c r="A75" s="21"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -9010,7 +9301,7 @@
       <c r="T75" s="11"/>
       <c r="U75" s="22"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:21">
       <c r="A76" s="21"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -9033,7 +9324,7 @@
       <c r="T76" s="11"/>
       <c r="U76" s="22"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:21">
       <c r="A77" s="21"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -9056,7 +9347,7 @@
       <c r="T77" s="11"/>
       <c r="U77" s="22"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:21">
       <c r="A78" s="21"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -9079,7 +9370,7 @@
       <c r="T78" s="11"/>
       <c r="U78" s="22"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:21">
       <c r="A79" s="21"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -9102,7 +9393,7 @@
       <c r="T79" s="11"/>
       <c r="U79" s="22"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:21">
       <c r="A80" s="21"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -9125,7 +9416,7 @@
       <c r="T80" s="11"/>
       <c r="U80" s="22"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:21">
       <c r="A81" s="21"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -9148,7 +9439,7 @@
       <c r="T81" s="11"/>
       <c r="U81" s="22"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:21">
       <c r="A82" s="21"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -9171,7 +9462,7 @@
       <c r="T82" s="11"/>
       <c r="U82" s="22"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:21">
       <c r="A83" s="21"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -9194,7 +9485,7 @@
       <c r="T83" s="11"/>
       <c r="U83" s="22"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:21">
       <c r="A84" s="21"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -9217,7 +9508,7 @@
       <c r="T84" s="11"/>
       <c r="U84" s="22"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:21">
       <c r="A85" s="21"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -9240,7 +9531,7 @@
       <c r="T85" s="11"/>
       <c r="U85" s="22"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:21">
       <c r="A86" s="21"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -9263,7 +9554,7 @@
       <c r="T86" s="11"/>
       <c r="U86" s="22"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:21">
       <c r="A87" s="21"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -9286,7 +9577,7 @@
       <c r="T87" s="11"/>
       <c r="U87" s="22"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:21">
       <c r="A88" s="21"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -9309,7 +9600,7 @@
       <c r="T88" s="11"/>
       <c r="U88" s="22"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:21">
       <c r="A89" s="21"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -9332,7 +9623,7 @@
       <c r="T89" s="11"/>
       <c r="U89" s="22"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:21">
       <c r="A90" s="21"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -9355,7 +9646,7 @@
       <c r="T90" s="11"/>
       <c r="U90" s="22"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:21">
       <c r="A91" s="21"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -9378,7 +9669,7 @@
       <c r="T91" s="11"/>
       <c r="U91" s="22"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:21">
       <c r="A92" s="21"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -9401,7 +9692,7 @@
       <c r="T92" s="11"/>
       <c r="U92" s="22"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:21">
       <c r="A93" s="21"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -9424,7 +9715,7 @@
       <c r="T93" s="11"/>
       <c r="U93" s="22"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:21">
       <c r="A94" s="21"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -9447,7 +9738,7 @@
       <c r="T94" s="11"/>
       <c r="U94" s="22"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:21">
       <c r="A95" s="21"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -9470,7 +9761,7 @@
       <c r="T95" s="11"/>
       <c r="U95" s="22"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:21">
       <c r="A96" s="21"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -9493,7 +9784,7 @@
       <c r="T96" s="11"/>
       <c r="U96" s="22"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:21">
       <c r="A97" s="21"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -9516,7 +9807,7 @@
       <c r="T97" s="11"/>
       <c r="U97" s="22"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:21">
       <c r="A98" s="21"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -9539,7 +9830,7 @@
       <c r="T98" s="11"/>
       <c r="U98" s="22"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:21">
       <c r="A99" s="21"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9562,7 +9853,7 @@
       <c r="T99" s="11"/>
       <c r="U99" s="22"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:21">
       <c r="A100" s="21"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -9585,7 +9876,7 @@
       <c r="T100" s="11"/>
       <c r="U100" s="22"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:21">
       <c r="A101" s="21"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -9608,7 +9899,7 @@
       <c r="T101" s="11"/>
       <c r="U101" s="22"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:21">
       <c r="A102" s="21"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -9631,7 +9922,7 @@
       <c r="T102" s="11"/>
       <c r="U102" s="22"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:21">
       <c r="A103" s="21"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -9654,7 +9945,7 @@
       <c r="T103" s="11"/>
       <c r="U103" s="22"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:21">
       <c r="A104" s="21"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -9677,7 +9968,7 @@
       <c r="T104" s="11"/>
       <c r="U104" s="22"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:21">
       <c r="A105" s="21"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -9700,7 +9991,7 @@
       <c r="T105" s="11"/>
       <c r="U105" s="22"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:21">
       <c r="A106" s="21"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -9723,7 +10014,7 @@
       <c r="T106" s="11"/>
       <c r="U106" s="22"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:21">
       <c r="A107" s="21"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -9746,7 +10037,7 @@
       <c r="T107" s="11"/>
       <c r="U107" s="22"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:21">
       <c r="A108" s="21"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -9769,7 +10060,7 @@
       <c r="T108" s="11"/>
       <c r="U108" s="22"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:21">
       <c r="A109" s="21"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -9792,7 +10083,7 @@
       <c r="T109" s="11"/>
       <c r="U109" s="22"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:21">
       <c r="A110" s="21"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -9815,7 +10106,7 @@
       <c r="T110" s="11"/>
       <c r="U110" s="22"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:21">
       <c r="A111" s="21"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -9838,7 +10129,7 @@
       <c r="T111" s="11"/>
       <c r="U111" s="22"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:21">
       <c r="A112" s="21"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -9861,7 +10152,7 @@
       <c r="T112" s="11"/>
       <c r="U112" s="22"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:21">
       <c r="A113" s="21"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -9884,7 +10175,7 @@
       <c r="T113" s="11"/>
       <c r="U113" s="22"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:21">
       <c r="A114" s="21"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -9907,7 +10198,7 @@
       <c r="T114" s="11"/>
       <c r="U114" s="22"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:21">
       <c r="A115" s="21"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -9930,7 +10221,7 @@
       <c r="T115" s="11"/>
       <c r="U115" s="22"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:21">
       <c r="A116" s="21"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -9953,7 +10244,7 @@
       <c r="T116" s="11"/>
       <c r="U116" s="22"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:21">
       <c r="A117" s="21"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -9976,7 +10267,7 @@
       <c r="T117" s="11"/>
       <c r="U117" s="22"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:21">
       <c r="A118" s="21"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -9999,7 +10290,7 @@
       <c r="T118" s="11"/>
       <c r="U118" s="22"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:21">
       <c r="A119" s="21"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -10022,7 +10313,7 @@
       <c r="T119" s="11"/>
       <c r="U119" s="22"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:21">
       <c r="A120" s="21"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -10045,7 +10336,7 @@
       <c r="T120" s="11"/>
       <c r="U120" s="22"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:21">
       <c r="A121" s="21"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -10068,7 +10359,7 @@
       <c r="T121" s="11"/>
       <c r="U121" s="22"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:21">
       <c r="A122" s="21"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -10091,7 +10382,7 @@
       <c r="T122" s="11"/>
       <c r="U122" s="22"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:21">
       <c r="A123" s="21"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -10114,7 +10405,7 @@
       <c r="T123" s="11"/>
       <c r="U123" s="22"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:21">
       <c r="A124" s="21"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -10137,7 +10428,7 @@
       <c r="T124" s="11"/>
       <c r="U124" s="22"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:21">
       <c r="A125" s="21"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -10160,7 +10451,7 @@
       <c r="T125" s="11"/>
       <c r="U125" s="22"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:21">
       <c r="A126" s="21"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -10183,7 +10474,7 @@
       <c r="T126" s="11"/>
       <c r="U126" s="22"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:21">
       <c r="A127" s="21"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -10206,7 +10497,7 @@
       <c r="T127" s="11"/>
       <c r="U127" s="22"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:21">
       <c r="A128" s="21"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -10229,7 +10520,7 @@
       <c r="T128" s="11"/>
       <c r="U128" s="22"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:21">
       <c r="A129" s="21"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -10252,7 +10543,7 @@
       <c r="T129" s="11"/>
       <c r="U129" s="22"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:21">
       <c r="A130" s="21"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -10275,7 +10566,7 @@
       <c r="T130" s="11"/>
       <c r="U130" s="22"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:21">
       <c r="A131" s="21"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -10298,7 +10589,7 @@
       <c r="T131" s="11"/>
       <c r="U131" s="22"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:21">
       <c r="A132" s="21"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -10321,7 +10612,7 @@
       <c r="T132" s="11"/>
       <c r="U132" s="22"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:21">
       <c r="A133" s="21"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -10344,7 +10635,7 @@
       <c r="T133" s="11"/>
       <c r="U133" s="22"/>
     </row>
-    <row r="134" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:21" ht="15.75" thickBot="1">
       <c r="A134" s="23"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -10383,14 +10674,14 @@
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20">
       <c r="B2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20">
       <c r="A4" s="13" t="s">
         <v>86</v>
       </c>
@@ -10414,7 +10705,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="15" t="s">
         <v>87</v>
@@ -10438,7 +10729,7 @@
       <c r="S5" s="11"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -10460,7 +10751,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -10482,7 +10773,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -10504,7 +10795,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -10526,7 +10817,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -10548,7 +10839,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -10570,7 +10861,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -10592,7 +10883,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -10614,7 +10905,7 @@
       <c r="S13" s="11"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -10636,7 +10927,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -10658,7 +10949,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -10680,7 +10971,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -10702,7 +10993,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10724,7 +11015,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10746,7 +11037,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10768,7 +11059,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10790,7 +11081,7 @@
       <c r="S21" s="11"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10812,7 +11103,7 @@
       <c r="S22" s="11"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10834,7 +11125,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -10856,7 +11147,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -10878,7 +11169,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -10900,7 +11191,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -10922,7 +11213,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10944,7 +11235,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -10966,7 +11257,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -10988,7 +11279,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11010,7 +11301,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11032,7 +11323,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:20">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -11054,7 +11345,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:20">
       <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
@@ -11070,7 +11361,7 @@
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:20">
       <c r="A37" s="26"/>
       <c r="B37" s="27" t="s">
         <v>0</v>
@@ -11086,7 +11377,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:20">
       <c r="A38" s="26"/>
       <c r="B38" s="30"/>
       <c r="C38" s="12" t="s">
@@ -11102,7 +11393,7 @@
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:20">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="12" t="s">
@@ -11118,7 +11409,7 @@
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:20">
       <c r="A40" s="26"/>
       <c r="B40" s="30"/>
       <c r="C40" s="12" t="s">
@@ -11134,7 +11425,7 @@
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:20">
       <c r="A41" s="26"/>
       <c r="B41" s="30"/>
       <c r="C41" s="12"/>
@@ -11150,7 +11441,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:20">
       <c r="A42" s="26"/>
       <c r="B42" s="30"/>
       <c r="C42" s="12"/>
@@ -11166,7 +11457,7 @@
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:20">
       <c r="A43" s="26"/>
       <c r="B43" s="30"/>
       <c r="C43" s="12"/>
@@ -11182,7 +11473,7 @@
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:20">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="12"/>
@@ -11198,7 +11489,7 @@
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:20">
       <c r="A45" s="26"/>
       <c r="B45" s="30"/>
       <c r="C45" s="12"/>
@@ -11214,7 +11505,7 @@
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:20">
       <c r="A46" s="26"/>
       <c r="B46" s="30"/>
       <c r="C46" s="12"/>
@@ -11230,7 +11521,7 @@
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:20">
       <c r="A47" s="26"/>
       <c r="B47" s="30"/>
       <c r="C47" s="12"/>
@@ -11246,7 +11537,7 @@
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:20">
       <c r="A48" s="26"/>
       <c r="B48" s="30"/>
       <c r="C48" s="12"/>
@@ -11260,7 +11551,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="31"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12">
       <c r="A49" s="26"/>
       <c r="B49" s="32"/>
       <c r="C49" s="33"/>
@@ -11280,12 +11571,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12">
       <c r="B53" s="1" t="s">
         <v>27</v>
       </c>
@@ -11296,7 +11587,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12">
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -11305,7 +11596,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12">
       <c r="B55" s="4" t="s">
         <v>50</v>
       </c>
@@ -11316,7 +11607,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12">
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -11325,7 +11616,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12">
       <c r="B57" s="4" t="s">
         <v>51</v>
       </c>
@@ -11336,7 +11627,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12">
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -11345,7 +11636,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12">
       <c r="B59" s="4" t="s">
         <v>52</v>
       </c>
@@ -11356,7 +11647,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12">
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -11365,7 +11656,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12">
       <c r="B61" s="4" t="s">
         <v>53</v>
       </c>
@@ -11376,7 +11667,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12">
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -11385,7 +11676,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12">
       <c r="B63" s="4" t="s">
         <v>54</v>
       </c>
@@ -11396,7 +11687,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12">
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -11405,7 +11696,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:21">
       <c r="B65" s="4" t="s">
         <v>55</v>
       </c>
@@ -11416,7 +11707,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:21">
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -11425,7 +11716,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:21">
       <c r="B67" s="45" t="s">
         <v>89</v>
       </c>
@@ -11436,7 +11727,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:21">
       <c r="B68" s="46" t="s">
         <v>90</v>
       </c>
@@ -11447,7 +11738,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:21">
       <c r="B69" s="46" t="s">
         <v>91</v>
       </c>
@@ -11458,7 +11749,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:21">
       <c r="B70" s="46" t="s">
         <v>92</v>
       </c>
@@ -11469,7 +11760,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:21">
       <c r="B71" s="47" t="s">
         <v>93</v>
       </c>
@@ -11480,8 +11771,8 @@
       <c r="G71" s="8"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="73" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:21">
       <c r="A74" s="18" t="s">
         <v>94</v>
       </c>
@@ -11506,7 +11797,7 @@
       <c r="T74" s="19"/>
       <c r="U74" s="20"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:21">
       <c r="A75" s="21"/>
       <c r="B75" s="13" t="s">
         <v>95</v>
@@ -11531,7 +11822,7 @@
       <c r="T75" s="3"/>
       <c r="U75" s="22"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:21">
       <c r="A76" s="21"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -11554,7 +11845,7 @@
       <c r="T76" s="5"/>
       <c r="U76" s="22"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:21">
       <c r="A77" s="21"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -11577,7 +11868,7 @@
       <c r="T77" s="5"/>
       <c r="U77" s="22"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:21">
       <c r="A78" s="21"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -11600,7 +11891,7 @@
       <c r="T78" s="5"/>
       <c r="U78" s="22"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:21">
       <c r="A79" s="21"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -11623,7 +11914,7 @@
       <c r="T79" s="5"/>
       <c r="U79" s="22"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:21">
       <c r="A80" s="21"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -11646,7 +11937,7 @@
       <c r="T80" s="5"/>
       <c r="U80" s="22"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:21">
       <c r="A81" s="21"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -11669,7 +11960,7 @@
       <c r="T81" s="5"/>
       <c r="U81" s="22"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:21">
       <c r="A82" s="21"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -11692,7 +11983,7 @@
       <c r="T82" s="5"/>
       <c r="U82" s="22"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:21">
       <c r="A83" s="21"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -11715,7 +12006,7 @@
       <c r="T83" s="5"/>
       <c r="U83" s="22"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:21">
       <c r="A84" s="21"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -11738,7 +12029,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="22"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:21">
       <c r="A85" s="21"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -11761,7 +12052,7 @@
       <c r="T85" s="5"/>
       <c r="U85" s="22"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:21">
       <c r="A86" s="21"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -11784,7 +12075,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="22"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:21">
       <c r="A87" s="21"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -11807,7 +12098,7 @@
       <c r="T87" s="5"/>
       <c r="U87" s="22"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:21">
       <c r="A88" s="21"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -11830,7 +12121,7 @@
       <c r="T88" s="5"/>
       <c r="U88" s="22"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:21">
       <c r="A89" s="21"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -11853,7 +12144,7 @@
       <c r="T89" s="5"/>
       <c r="U89" s="22"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:21">
       <c r="A90" s="21"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -11876,7 +12167,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="22"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:21">
       <c r="A91" s="21"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -11899,7 +12190,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="22"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:21">
       <c r="A92" s="21"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -11922,7 +12213,7 @@
       <c r="T92" s="5"/>
       <c r="U92" s="22"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:21">
       <c r="A93" s="21"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -11945,7 +12236,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="22"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:21">
       <c r="A94" s="21"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -11968,7 +12259,7 @@
       <c r="T94" s="5"/>
       <c r="U94" s="22"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:21">
       <c r="A95" s="21"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -11991,7 +12282,7 @@
       <c r="T95" s="5"/>
       <c r="U95" s="22"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:21">
       <c r="A96" s="21"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
@@ -12014,7 +12305,7 @@
       <c r="T96" s="6"/>
       <c r="U96" s="22"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:21">
       <c r="A97" s="21"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -12037,7 +12328,7 @@
       <c r="T97" s="11"/>
       <c r="U97" s="22"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:21">
       <c r="A98" s="21"/>
       <c r="B98" s="13" t="s">
         <v>96</v>
@@ -12062,7 +12353,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="22"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:21">
       <c r="A99" s="21"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -12085,7 +12376,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="22"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:21">
       <c r="A100" s="21"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -12108,7 +12399,7 @@
       <c r="T100" s="5"/>
       <c r="U100" s="22"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:21">
       <c r="A101" s="21"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -12131,7 +12422,7 @@
       <c r="T101" s="5"/>
       <c r="U101" s="22"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:21">
       <c r="A102" s="21"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -12154,7 +12445,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="22"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:21">
       <c r="A103" s="21"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -12177,7 +12468,7 @@
       <c r="T103" s="5"/>
       <c r="U103" s="22"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:21">
       <c r="A104" s="21"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -12200,7 +12491,7 @@
       <c r="T104" s="5"/>
       <c r="U104" s="22"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:21">
       <c r="A105" s="21"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -12223,7 +12514,7 @@
       <c r="T105" s="5"/>
       <c r="U105" s="22"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:21">
       <c r="A106" s="21"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -12246,7 +12537,7 @@
       <c r="T106" s="5"/>
       <c r="U106" s="22"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:21">
       <c r="A107" s="21"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -12269,7 +12560,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="22"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:21">
       <c r="A108" s="21"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -12292,7 +12583,7 @@
       <c r="T108" s="5"/>
       <c r="U108" s="22"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:21">
       <c r="A109" s="21"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -12315,7 +12606,7 @@
       <c r="T109" s="5"/>
       <c r="U109" s="22"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:21">
       <c r="A110" s="21"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -12338,7 +12629,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="22"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:21">
       <c r="A111" s="21"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -12361,7 +12652,7 @@
       <c r="T111" s="5"/>
       <c r="U111" s="22"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:21">
       <c r="A112" s="21"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -12384,7 +12675,7 @@
       <c r="T112" s="5"/>
       <c r="U112" s="22"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:21">
       <c r="A113" s="21"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -12407,7 +12698,7 @@
       <c r="T113" s="5"/>
       <c r="U113" s="22"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:21">
       <c r="A114" s="21"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -12430,7 +12721,7 @@
       <c r="T114" s="5"/>
       <c r="U114" s="22"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:21">
       <c r="A115" s="21"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -12453,7 +12744,7 @@
       <c r="T115" s="5"/>
       <c r="U115" s="22"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:21">
       <c r="A116" s="21"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -12476,7 +12767,7 @@
       <c r="T116" s="5"/>
       <c r="U116" s="22"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:21">
       <c r="A117" s="21"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -12499,7 +12790,7 @@
       <c r="T117" s="5"/>
       <c r="U117" s="22"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:21">
       <c r="A118" s="21"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -12522,7 +12813,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="22"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:21">
       <c r="A119" s="21"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -12545,7 +12836,7 @@
       <c r="T119" s="6"/>
       <c r="U119" s="22"/>
     </row>
-    <row r="120" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:21" ht="15.75" thickBot="1">
       <c r="A120" s="23"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -12580,23 +12871,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A759A337-9404-452E-93C2-F28B34BEB2C5}">
   <dimension ref="A2:U192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" ht="18.75">
       <c r="B3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12">
       <c r="B4" s="40" t="s">
         <v>131</v>
       </c>
@@ -12606,7 +12897,7 @@
       </c>
       <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12">
       <c r="B5" s="4" t="s">
         <v>132</v>
       </c>
@@ -12616,7 +12907,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12">
       <c r="B6" s="4" t="s">
         <v>132</v>
       </c>
@@ -12626,7 +12917,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12">
       <c r="B7" s="4" t="s">
         <v>133</v>
       </c>
@@ -12636,7 +12927,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12">
       <c r="B8" s="4" t="s">
         <v>134</v>
       </c>
@@ -12646,7 +12937,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12">
       <c r="B9" s="7" t="s">
         <v>135</v>
       </c>
@@ -12656,7 +12947,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12">
       <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
@@ -12672,7 +12963,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>0</v>
@@ -12688,7 +12979,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12" t="s">
@@ -12704,7 +12995,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12">
       <c r="A14" s="26"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
@@ -12720,7 +13011,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12">
       <c r="A15" s="26"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
@@ -12736,7 +13027,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12">
       <c r="A16" s="26"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12"/>
@@ -12752,7 +13043,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12">
       <c r="A17" s="26"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
@@ -12768,7 +13059,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12">
       <c r="A18" s="26"/>
       <c r="B18" s="30"/>
       <c r="C18" s="12"/>
@@ -12784,7 +13075,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12">
       <c r="A19" s="26"/>
       <c r="B19" s="30"/>
       <c r="C19" s="12"/>
@@ -12800,7 +13091,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12">
       <c r="A20" s="26"/>
       <c r="B20" s="30"/>
       <c r="C20" s="12"/>
@@ -12816,7 +13107,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12">
       <c r="A21" s="26"/>
       <c r="B21" s="30"/>
       <c r="C21" s="12"/>
@@ -12832,7 +13123,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12">
       <c r="A22" s="26"/>
       <c r="B22" s="30"/>
       <c r="C22" s="12"/>
@@ -12848,7 +13139,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12">
       <c r="A23" s="26"/>
       <c r="B23" s="30"/>
       <c r="C23" s="12"/>
@@ -12862,7 +13153,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="31"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12">
       <c r="A24" s="26"/>
       <c r="B24" s="30"/>
       <c r="C24" s="12"/>
@@ -12882,7 +13173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12">
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -12901,7 +13192,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -12920,12 +13211,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12">
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -12937,7 +13228,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12">
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -12947,7 +13238,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12">
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -12959,7 +13250,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:9">
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -12969,7 +13260,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:9">
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
@@ -12981,7 +13272,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:9">
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -12991,7 +13282,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:9">
       <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
@@ -13003,7 +13294,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:9">
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -13013,7 +13304,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:9">
       <c r="B38" s="4" t="s">
         <v>53</v>
       </c>
@@ -13025,7 +13316,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:9">
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -13035,7 +13326,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:9">
       <c r="B40" s="4" t="s">
         <v>89</v>
       </c>
@@ -13047,7 +13338,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:9">
       <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
@@ -13059,7 +13350,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:9">
       <c r="B42" s="4" t="s">
         <v>91</v>
       </c>
@@ -13071,7 +13362,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:9">
       <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
@@ -13083,7 +13374,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:9">
       <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
@@ -13095,7 +13386,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:9">
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -13105,7 +13396,7 @@
       <c r="H45" s="11"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:9">
       <c r="B46" s="45" t="s">
         <v>127</v>
       </c>
@@ -13117,7 +13408,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:9">
       <c r="B47" s="46"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -13127,7 +13418,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:9">
       <c r="B48" s="46" t="s">
         <v>128</v>
       </c>
@@ -13139,7 +13430,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9">
       <c r="B49" s="46"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -13149,7 +13440,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9">
       <c r="B50" s="47" t="s">
         <v>129</v>
       </c>
@@ -13161,12 +13452,12 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9">
       <c r="B54" s="1" t="s">
         <v>27</v>
       </c>
@@ -13178,7 +13469,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9">
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -13188,7 +13479,7 @@
       <c r="H55" s="11"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9">
       <c r="B56" s="4" t="s">
         <v>103</v>
       </c>
@@ -13200,7 +13491,7 @@
       <c r="H56" s="11"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9">
       <c r="B57" s="4" t="s">
         <v>104</v>
       </c>
@@ -13212,7 +13503,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9">
       <c r="B58" s="4" t="s">
         <v>105</v>
       </c>
@@ -13224,7 +13515,7 @@
       <c r="H58" s="11"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9">
       <c r="B59" s="4" t="s">
         <v>106</v>
       </c>
@@ -13236,7 +13527,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9">
       <c r="B60" s="4" t="s">
         <v>107</v>
       </c>
@@ -13248,7 +13539,7 @@
       <c r="H60" s="11"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9">
       <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
@@ -13260,7 +13551,7 @@
       <c r="H61" s="11"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9">
       <c r="B62" s="4" t="s">
         <v>109</v>
       </c>
@@ -13272,7 +13563,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9">
       <c r="B63" s="4" t="s">
         <v>110</v>
       </c>
@@ -13284,7 +13575,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9">
       <c r="B64" s="4" t="s">
         <v>111</v>
       </c>
@@ -13296,7 +13587,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:9">
       <c r="B65" s="4" t="s">
         <v>112</v>
       </c>
@@ -13308,7 +13599,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:9">
       <c r="B66" s="4" t="s">
         <v>110</v>
       </c>
@@ -13320,7 +13611,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:9">
       <c r="B67" s="4" t="s">
         <v>113</v>
       </c>
@@ -13332,7 +13623,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:9">
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
@@ -13344,7 +13635,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:9">
       <c r="B69" s="4" t="s">
         <v>115</v>
       </c>
@@ -13356,7 +13647,7 @@
       <c r="H69" s="11"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:9">
       <c r="B70" s="4" t="s">
         <v>108</v>
       </c>
@@ -13368,7 +13659,7 @@
       <c r="H70" s="11"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:9">
       <c r="B71" s="4" t="s">
         <v>116</v>
       </c>
@@ -13380,7 +13671,7 @@
       <c r="H71" s="11"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:9">
       <c r="B72" s="4" t="s">
         <v>110</v>
       </c>
@@ -13392,7 +13683,7 @@
       <c r="H72" s="11"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:9">
       <c r="B73" s="4" t="s">
         <v>117</v>
       </c>
@@ -13404,7 +13695,7 @@
       <c r="H73" s="11"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:9">
       <c r="B74" s="4" t="s">
         <v>118</v>
       </c>
@@ -13416,7 +13707,7 @@
       <c r="H74" s="11"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:9">
       <c r="B75" s="4" t="s">
         <v>119</v>
       </c>
@@ -13428,7 +13719,7 @@
       <c r="H75" s="11"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:9">
       <c r="B76" s="4" t="s">
         <v>110</v>
       </c>
@@ -13440,7 +13731,7 @@
       <c r="H76" s="11"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:9">
       <c r="B77" s="4" t="s">
         <v>120</v>
       </c>
@@ -13452,7 +13743,7 @@
       <c r="H77" s="11"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:9">
       <c r="B78" s="4" t="s">
         <v>121</v>
       </c>
@@ -13464,7 +13755,7 @@
       <c r="H78" s="11"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:9">
       <c r="B79" s="4" t="s">
         <v>119</v>
       </c>
@@ -13476,7 +13767,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:9">
       <c r="B80" s="4" t="s">
         <v>122</v>
       </c>
@@ -13488,7 +13779,7 @@
       <c r="H80" s="11"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:21">
       <c r="B81" s="4" t="s">
         <v>123</v>
       </c>
@@ -13500,7 +13791,7 @@
       <c r="H81" s="11"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:21">
       <c r="B82" s="4" t="s">
         <v>124</v>
       </c>
@@ -13512,7 +13803,7 @@
       <c r="H82" s="11"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:21">
       <c r="B83" s="4" t="s">
         <v>119</v>
       </c>
@@ -13524,7 +13815,7 @@
       <c r="H83" s="11"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:21">
       <c r="B84" s="4" t="s">
         <v>114</v>
       </c>
@@ -13536,7 +13827,7 @@
       <c r="H84" s="11"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:21">
       <c r="B85" s="4" t="s">
         <v>125</v>
       </c>
@@ -13548,7 +13839,7 @@
       <c r="H85" s="11"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:21">
       <c r="B86" s="4" t="s">
         <v>126</v>
       </c>
@@ -13560,7 +13851,7 @@
       <c r="H86" s="11"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:21">
       <c r="B87" s="7" t="s">
         <v>93</v>
       </c>
@@ -13572,8 +13863,8 @@
       <c r="H87" s="8"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="89" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="90" spans="1:21">
       <c r="A90" s="18" t="s">
         <v>139</v>
       </c>
@@ -13598,7 +13889,7 @@
       <c r="T90" s="19"/>
       <c r="U90" s="20"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:21">
       <c r="A91" s="21"/>
       <c r="B91" s="13" t="s">
         <v>140</v>
@@ -13623,7 +13914,7 @@
       <c r="T91" s="3"/>
       <c r="U91" s="22"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:21">
       <c r="A92" s="21"/>
       <c r="B92" s="17" t="s">
         <v>84</v>
@@ -13648,7 +13939,7 @@
       <c r="T92" s="5"/>
       <c r="U92" s="22"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:21">
       <c r="A93" s="21"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -13671,7 +13962,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="22"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:21">
       <c r="A94" s="21"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -13694,7 +13985,7 @@
       <c r="T94" s="5"/>
       <c r="U94" s="22"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:21">
       <c r="A95" s="21"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -13717,7 +14008,7 @@
       <c r="T95" s="5"/>
       <c r="U95" s="22"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:21">
       <c r="A96" s="21"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -13740,7 +14031,7 @@
       <c r="T96" s="5"/>
       <c r="U96" s="22"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:21">
       <c r="A97" s="21"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -13763,7 +14054,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="22"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:21">
       <c r="A98" s="21"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -13786,7 +14077,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="22"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:21">
       <c r="A99" s="21"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -13809,7 +14100,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="22"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:21">
       <c r="A100" s="21"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -13832,7 +14123,7 @@
       <c r="T100" s="5"/>
       <c r="U100" s="22"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:21">
       <c r="A101" s="21"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -13855,7 +14146,7 @@
       <c r="T101" s="5"/>
       <c r="U101" s="22"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:21">
       <c r="A102" s="21"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -13878,7 +14169,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="22"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:21">
       <c r="A103" s="21"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -13901,7 +14192,7 @@
       <c r="T103" s="5"/>
       <c r="U103" s="22"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:21">
       <c r="A104" s="21"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -13924,7 +14215,7 @@
       <c r="T104" s="5"/>
       <c r="U104" s="22"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:21">
       <c r="A105" s="21"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -13947,7 +14238,7 @@
       <c r="T105" s="5"/>
       <c r="U105" s="22"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:21">
       <c r="A106" s="21"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -13970,7 +14261,7 @@
       <c r="T106" s="5"/>
       <c r="U106" s="22"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:21">
       <c r="A107" s="21"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -13993,7 +14284,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="22"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:21">
       <c r="A108" s="21"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -14016,7 +14307,7 @@
       <c r="T108" s="5"/>
       <c r="U108" s="22"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:21">
       <c r="A109" s="21"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -14039,7 +14330,7 @@
       <c r="T109" s="5"/>
       <c r="U109" s="22"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:21">
       <c r="A110" s="21"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -14062,7 +14353,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="22"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:21">
       <c r="A111" s="21"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -14085,7 +14376,7 @@
       <c r="T111" s="5"/>
       <c r="U111" s="22"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:21">
       <c r="A112" s="21"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -14108,7 +14399,7 @@
       <c r="T112" s="5"/>
       <c r="U112" s="22"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:21">
       <c r="A113" s="21"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -14131,7 +14422,7 @@
       <c r="T113" s="5"/>
       <c r="U113" s="22"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:21">
       <c r="A114" s="21"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
@@ -14154,7 +14445,7 @@
       <c r="T114" s="6"/>
       <c r="U114" s="22"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:21">
       <c r="A115" s="21"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -14177,7 +14468,7 @@
       <c r="T115" s="11"/>
       <c r="U115" s="22"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:21">
       <c r="A116" s="21"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -14200,7 +14491,7 @@
       <c r="T116" s="11"/>
       <c r="U116" s="22"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:21">
       <c r="A117" s="21"/>
       <c r="B117" s="13" t="s">
         <v>141</v>
@@ -14225,7 +14516,7 @@
       <c r="T117" s="3"/>
       <c r="U117" s="22"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:21">
       <c r="A118" s="21"/>
       <c r="B118" s="17" t="s">
         <v>84</v>
@@ -14250,7 +14541,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="22"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:21">
       <c r="A119" s="21"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -14273,7 +14564,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="22"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:21">
       <c r="A120" s="21"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -14296,7 +14587,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="22"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:21">
       <c r="A121" s="21"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -14319,7 +14610,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="22"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:21">
       <c r="A122" s="21"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -14342,7 +14633,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="22"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:21">
       <c r="A123" s="21"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -14365,7 +14656,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="22"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:21">
       <c r="A124" s="21"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -14388,7 +14679,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="22"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:21">
       <c r="A125" s="21"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -14411,7 +14702,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="22"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:21">
       <c r="A126" s="21"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -14434,7 +14725,7 @@
       <c r="T126" s="5"/>
       <c r="U126" s="22"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:21">
       <c r="A127" s="21"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -14457,7 +14748,7 @@
       <c r="T127" s="5"/>
       <c r="U127" s="22"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:21">
       <c r="A128" s="21"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -14480,7 +14771,7 @@
       <c r="T128" s="5"/>
       <c r="U128" s="22"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:21">
       <c r="A129" s="21"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -14503,7 +14794,7 @@
       <c r="T129" s="5"/>
       <c r="U129" s="22"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:21">
       <c r="A130" s="21"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -14526,7 +14817,7 @@
       <c r="T130" s="5"/>
       <c r="U130" s="22"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:21">
       <c r="A131" s="21"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -14549,7 +14840,7 @@
       <c r="T131" s="5"/>
       <c r="U131" s="22"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:21">
       <c r="A132" s="21"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -14572,7 +14863,7 @@
       <c r="T132" s="5"/>
       <c r="U132" s="22"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:21">
       <c r="A133" s="21"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -14595,7 +14886,7 @@
       <c r="T133" s="5"/>
       <c r="U133" s="22"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:21">
       <c r="A134" s="21"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -14618,7 +14909,7 @@
       <c r="T134" s="5"/>
       <c r="U134" s="22"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:21">
       <c r="A135" s="21"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -14641,7 +14932,7 @@
       <c r="T135" s="5"/>
       <c r="U135" s="22"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:21">
       <c r="A136" s="21"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -14664,7 +14955,7 @@
       <c r="T136" s="5"/>
       <c r="U136" s="22"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:21">
       <c r="A137" s="21"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -14687,7 +14978,7 @@
       <c r="T137" s="5"/>
       <c r="U137" s="22"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:21">
       <c r="A138" s="21"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -14710,7 +15001,7 @@
       <c r="T138" s="5"/>
       <c r="U138" s="22"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:21">
       <c r="A139" s="21"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -14733,7 +15024,7 @@
       <c r="T139" s="5"/>
       <c r="U139" s="22"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:21">
       <c r="A140" s="21"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -14756,7 +15047,7 @@
       <c r="T140" s="5"/>
       <c r="U140" s="22"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:21">
       <c r="A141" s="21"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -14779,7 +15070,7 @@
       <c r="T141" s="6"/>
       <c r="U141" s="22"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:21">
       <c r="A142" s="21"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -14802,7 +15093,7 @@
       <c r="T142" s="11"/>
       <c r="U142" s="22"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:21">
       <c r="A143" s="21"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -14825,7 +15116,7 @@
       <c r="T143" s="11"/>
       <c r="U143" s="22"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:21">
       <c r="A144" s="21"/>
       <c r="B144" s="13" t="s">
         <v>142</v>
@@ -14850,7 +15141,7 @@
       <c r="T144" s="3"/>
       <c r="U144" s="22"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:21">
       <c r="A145" s="21"/>
       <c r="B145" s="17" t="s">
         <v>143</v>
@@ -14875,7 +15166,7 @@
       <c r="T145" s="5"/>
       <c r="U145" s="22"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:21">
       <c r="A146" s="21"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -14898,7 +15189,7 @@
       <c r="T146" s="5"/>
       <c r="U146" s="22"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:21">
       <c r="A147" s="21"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -14921,7 +15212,7 @@
       <c r="T147" s="5"/>
       <c r="U147" s="22"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:21">
       <c r="A148" s="21"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -14944,7 +15235,7 @@
       <c r="T148" s="5"/>
       <c r="U148" s="22"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:21">
       <c r="A149" s="21"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -14967,7 +15258,7 @@
       <c r="T149" s="5"/>
       <c r="U149" s="22"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:21">
       <c r="A150" s="21"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -14990,7 +15281,7 @@
       <c r="T150" s="5"/>
       <c r="U150" s="22"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:21">
       <c r="A151" s="21"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -15013,7 +15304,7 @@
       <c r="T151" s="5"/>
       <c r="U151" s="22"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:21">
       <c r="A152" s="21"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -15036,7 +15327,7 @@
       <c r="T152" s="5"/>
       <c r="U152" s="22"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:21">
       <c r="A153" s="21"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -15059,7 +15350,7 @@
       <c r="T153" s="5"/>
       <c r="U153" s="22"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:21">
       <c r="A154" s="21"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -15082,7 +15373,7 @@
       <c r="T154" s="5"/>
       <c r="U154" s="22"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:21">
       <c r="A155" s="21"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -15105,7 +15396,7 @@
       <c r="T155" s="5"/>
       <c r="U155" s="22"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:21">
       <c r="A156" s="21"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -15128,7 +15419,7 @@
       <c r="T156" s="5"/>
       <c r="U156" s="22"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:21">
       <c r="A157" s="21"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -15151,7 +15442,7 @@
       <c r="T157" s="5"/>
       <c r="U157" s="22"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:21">
       <c r="A158" s="21"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -15174,7 +15465,7 @@
       <c r="T158" s="5"/>
       <c r="U158" s="22"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:21">
       <c r="A159" s="21"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -15197,7 +15488,7 @@
       <c r="T159" s="5"/>
       <c r="U159" s="22"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:21">
       <c r="A160" s="21"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -15220,7 +15511,7 @@
       <c r="T160" s="5"/>
       <c r="U160" s="22"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:21">
       <c r="A161" s="21"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -15243,7 +15534,7 @@
       <c r="T161" s="5"/>
       <c r="U161" s="22"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:21">
       <c r="A162" s="21"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -15266,7 +15557,7 @@
       <c r="T162" s="5"/>
       <c r="U162" s="22"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:21">
       <c r="A163" s="21"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -15289,7 +15580,7 @@
       <c r="T163" s="5"/>
       <c r="U163" s="22"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:21">
       <c r="A164" s="21"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -15312,7 +15603,7 @@
       <c r="T164" s="5"/>
       <c r="U164" s="22"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:21">
       <c r="A165" s="21"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -15335,7 +15626,7 @@
       <c r="T165" s="5"/>
       <c r="U165" s="22"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:21">
       <c r="A166" s="21"/>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
@@ -15358,7 +15649,7 @@
       <c r="T166" s="6"/>
       <c r="U166" s="22"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:21">
       <c r="A167" s="21"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -15381,7 +15672,7 @@
       <c r="T167" s="11"/>
       <c r="U167" s="22"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:21">
       <c r="A168" s="21"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -15404,7 +15695,7 @@
       <c r="T168" s="11"/>
       <c r="U168" s="22"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:21">
       <c r="A169" s="21"/>
       <c r="B169" s="13" t="s">
         <v>144</v>
@@ -15429,7 +15720,7 @@
       <c r="T169" s="3"/>
       <c r="U169" s="22"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:21">
       <c r="A170" s="21"/>
       <c r="B170" s="17" t="s">
         <v>143</v>
@@ -15454,7 +15745,7 @@
       <c r="T170" s="5"/>
       <c r="U170" s="22"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:21">
       <c r="A171" s="21"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -15477,7 +15768,7 @@
       <c r="T171" s="5"/>
       <c r="U171" s="22"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:21">
       <c r="A172" s="21"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -15500,7 +15791,7 @@
       <c r="T172" s="5"/>
       <c r="U172" s="22"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:21">
       <c r="A173" s="21"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -15523,7 +15814,7 @@
       <c r="T173" s="5"/>
       <c r="U173" s="22"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:21">
       <c r="A174" s="21"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -15546,7 +15837,7 @@
       <c r="T174" s="5"/>
       <c r="U174" s="22"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:21">
       <c r="A175" s="21"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -15569,7 +15860,7 @@
       <c r="T175" s="5"/>
       <c r="U175" s="22"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:21">
       <c r="A176" s="21"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -15592,7 +15883,7 @@
       <c r="T176" s="5"/>
       <c r="U176" s="22"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:21">
       <c r="A177" s="21"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -15615,7 +15906,7 @@
       <c r="T177" s="5"/>
       <c r="U177" s="22"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:21">
       <c r="A178" s="21"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -15638,7 +15929,7 @@
       <c r="T178" s="5"/>
       <c r="U178" s="22"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:21">
       <c r="A179" s="21"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -15661,7 +15952,7 @@
       <c r="T179" s="5"/>
       <c r="U179" s="22"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:21">
       <c r="A180" s="21"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -15684,7 +15975,7 @@
       <c r="T180" s="5"/>
       <c r="U180" s="22"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:21">
       <c r="A181" s="21"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -15707,7 +15998,7 @@
       <c r="T181" s="5"/>
       <c r="U181" s="22"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:21">
       <c r="A182" s="21"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -15730,7 +16021,7 @@
       <c r="T182" s="5"/>
       <c r="U182" s="22"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:21">
       <c r="A183" s="21"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -15753,7 +16044,7 @@
       <c r="T183" s="5"/>
       <c r="U183" s="22"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:21">
       <c r="A184" s="21"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -15776,7 +16067,7 @@
       <c r="T184" s="5"/>
       <c r="U184" s="22"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:21">
       <c r="A185" s="21"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -15799,7 +16090,7 @@
       <c r="T185" s="5"/>
       <c r="U185" s="22"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:21">
       <c r="A186" s="21"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -15822,7 +16113,7 @@
       <c r="T186" s="5"/>
       <c r="U186" s="22"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:21">
       <c r="A187" s="21"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -15845,7 +16136,7 @@
       <c r="T187" s="5"/>
       <c r="U187" s="22"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:21">
       <c r="A188" s="21"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -15868,7 +16159,7 @@
       <c r="T188" s="5"/>
       <c r="U188" s="22"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:21">
       <c r="A189" s="21"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -15891,7 +16182,7 @@
       <c r="T189" s="5"/>
       <c r="U189" s="22"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:21">
       <c r="A190" s="21"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -15914,7 +16205,7 @@
       <c r="T190" s="5"/>
       <c r="U190" s="22"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:21">
       <c r="A191" s="21"/>
       <c r="B191" s="7"/>
       <c r="C191" s="8"/>
@@ -15937,7 +16228,7 @@
       <c r="T191" s="6"/>
       <c r="U191" s="22"/>
     </row>
-    <row r="192" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:21" ht="15.75" thickBot="1">
       <c r="A192" s="23"/>
       <c r="B192" s="24"/>
       <c r="C192" s="24"/>
@@ -15966,4 +16257,1885 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FC77DE-C904-4220-8AF9-E71FA26C1647}">
+  <dimension ref="A2:T137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="4"/>
+      <c r="B7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="4"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="4"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="4"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="4"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="4"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="4"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="4"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="4"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="4"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="4"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="4"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="4"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="26"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="26"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="26"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="26"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="26"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="26"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="26"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="26"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="26"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="31"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="26"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" s="4"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="B57" s="4"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="6"/>
+      <c r="K58" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="B62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="B64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="B65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="B66" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="B67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="B68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="B72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="B73" s="4"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="B74" s="4"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="B75" s="4"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="B77" s="4"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="B78" s="4"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="B79" s="4"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="B80" s="4"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="B81" s="4"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="B82" s="4"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="B83" s="4"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="B84" s="4"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="B85" s="4"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="B86" s="4"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="B87" s="4"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="B88" s="4"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="B89" s="7"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="26"/>
+      <c r="B93" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="29"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="26"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="31"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="26"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="31"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="26"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="31"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="26"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="31"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="26"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="31"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="26"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="31"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="26"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="31"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="26"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="31"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="26"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="31"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="26"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="31"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="26"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="31"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="26"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="31"/>
+      <c r="K105" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="5"/>
+      <c r="K108" t="s">
+        <v>9</v>
+      </c>
+      <c r="L108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="6"/>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="5"/>
+      <c r="I115" t="s">
+        <v>9</v>
+      </c>
+      <c r="J115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="B129" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="B130" s="4"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="B132" s="4"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="B137" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
+++ b/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18ED880-1EB1-43E7-A46E-FB19B4306F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE43E2-B206-47E6-8F5F-B4DA5FE644C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enable URL rewriting" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Set the HTTP status code" sheetId="4" r:id="rId4"/>
     <sheet name="controller to decide response" sheetId="5" r:id="rId5"/>
     <sheet name="load classes automatically" sheetId="6" r:id="rId6"/>
+    <sheet name="Make debugging easier" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="177">
   <si>
     <t>rest-api-php</t>
   </si>
@@ -1448,12 +1449,143 @@
   <si>
     <t>Check by call api</t>
   </si>
+  <si>
+    <t>Make debugging easier: add type declarations and enable strict type checking</t>
+  </si>
+  <si>
+    <t>declare(strict_types=1);</t>
+  </si>
+  <si>
+    <t>ini_set("display_errors", "On");</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\TaskController.php</t>
+  </si>
+  <si>
+    <r>
+      <t>declarations to the method arguments(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $method, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $id) and its return value(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vì $id được truyền thông qua url của api nên mặc dù $id là numeric nhưng thông qua url nó là string</t>
+  </si>
+  <si>
+    <t>index.php đóng vai trò là front controller, nó được load trước xong mới đến các phần xử lý khác nên mình sẽ enable</t>
+  </si>
+  <si>
+    <t>strict type ngay tại đây, vị trí đầu của script</t>
+  </si>
+  <si>
+    <t>Trong trường hợp error thông báo lỗi từ api ko được trả về thì cần config display_errors On</t>
+  </si>
+  <si>
+    <t>    public function processRequest(string $method, string $id): void</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\TaskController.php(For check thông báo lỗi được trả về từ api nên để tham số $id là bắt buộc phải truyền string)</t>
+  </si>
+  <si>
+    <t>Check call api</t>
+  </si>
+  <si>
+    <t>ko có giá trị id, error được trả về từ kết quả gọi api</t>
+  </si>
+  <si>
+    <t>Có giá trị $id được truyền nên ko có error</t>
+  </si>
+  <si>
+    <t>$id là tham số ko bắt buộc truyền nên có dạng ?string $id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public function processRequest(string $method, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string $id): void</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1502,6 +1634,12 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1749,7 +1887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1799,6 +1937,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4077,6 +4216,364 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D0FB16-5955-78CF-1F47-706FA49CCDC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5476875" y="5334000"/>
+          <a:ext cx="9525" cy="5514975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16094A8-5967-81F2-B2E3-7075316763CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4133850" y="10058400"/>
+          <a:ext cx="2819400" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309518</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117A7738-8514-7F6E-30E4-9BC6F28BC1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723899" y="17583149"/>
+          <a:ext cx="10558419" cy="4391025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B9FBB9-9916-4E02-61D1-01A88CFDDF1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3352800" y="11058525"/>
+          <a:ext cx="619125" cy="6353175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27911EED-5414-1281-1EC5-3DA553377FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="17973675"/>
+          <a:ext cx="866775" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427368</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>180630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5698326A-71EA-3F58-23C8-D410B13C6A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="23136225"/>
+          <a:ext cx="10057143" cy="2761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10041F67-0D30-60EA-75C3-8740DDB3F001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="104775" y="10096500"/>
+          <a:ext cx="247650" cy="16630650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16263,8 +16760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FC77DE-C904-4220-8AF9-E71FA26C1647}">
   <dimension ref="A2:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18138,4 +18635,2460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6D62C3-A869-4F51-BE40-AA6DF17ED1EF}">
+  <dimension ref="A2:T176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="J142" sqref="J142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="26"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="26"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="26"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="26"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="26"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="26"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="26"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="5"/>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" s="45"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="5"/>
+      <c r="J29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="5"/>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="4"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="4"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="5"/>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="5"/>
+      <c r="J59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="B81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="B82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="B83" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="B84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="B85" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="B86" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="B87" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="89" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="90" spans="1:20">
+      <c r="A90" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="20"/>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="21"/>
+      <c r="B91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="22"/>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="21"/>
+      <c r="B92" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="22"/>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="21"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="22"/>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="21"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="22"/>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" s="21"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="22"/>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="21"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="22"/>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" s="21"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="22"/>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" s="21"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="22"/>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" s="21"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="22"/>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" s="21"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="22"/>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" s="21"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="22"/>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102" s="21"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="22"/>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103" s="21"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="22"/>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104" s="21"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="22"/>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105" s="21"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="22"/>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106" s="21"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="22"/>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107" s="21"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="22"/>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108" s="21"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="22"/>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109" s="21"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="22"/>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110" s="21"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="22"/>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111" s="21"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="22"/>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="A112" s="21"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="22"/>
+    </row>
+    <row r="113" spans="1:20">
+      <c r="A113" s="21"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="22"/>
+    </row>
+    <row r="114" spans="1:20">
+      <c r="A114" s="21"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="22"/>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="A115" s="21"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="22"/>
+    </row>
+    <row r="116" spans="1:20">
+      <c r="A116" s="21"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="22"/>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117" s="21"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="22"/>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118" s="21"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="22"/>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119" s="21"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="22"/>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120" s="21"/>
+      <c r="B120" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="22"/>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121" s="21"/>
+      <c r="B121" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="22"/>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="A122" s="21"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="22"/>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123" s="21"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="22"/>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124" s="21"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="22"/>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="A125" s="21"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="22"/>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126" s="21"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="22"/>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="A127" s="21"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="22"/>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="A128" s="21"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="22"/>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="A129" s="21"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="22"/>
+    </row>
+    <row r="130" spans="1:20">
+      <c r="A130" s="21"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="22"/>
+    </row>
+    <row r="131" spans="1:20">
+      <c r="A131" s="21"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="22"/>
+    </row>
+    <row r="132" spans="1:20">
+      <c r="A132" s="21"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="22"/>
+    </row>
+    <row r="133" spans="1:20">
+      <c r="A133" s="21"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="22"/>
+    </row>
+    <row r="134" spans="1:20">
+      <c r="A134" s="21"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="22"/>
+    </row>
+    <row r="135" spans="1:20">
+      <c r="A135" s="21"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="22"/>
+    </row>
+    <row r="136" spans="1:20">
+      <c r="A136" s="21"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="22"/>
+    </row>
+    <row r="137" spans="1:20">
+      <c r="A137" s="21"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="6"/>
+      <c r="T137" s="22"/>
+    </row>
+    <row r="138" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A138" s="23"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="24"/>
+      <c r="O138" s="24"/>
+      <c r="P138" s="24"/>
+      <c r="Q138" s="24"/>
+      <c r="R138" s="24"/>
+      <c r="S138" s="24"/>
+      <c r="T138" s="25"/>
+    </row>
+    <row r="141" spans="1:20">
+      <c r="A141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
+      <c r="A142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
+      <c r="B143" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:20">
+      <c r="B144" s="4"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="5"/>
+      <c r="I147" t="s">
+        <v>9</v>
+      </c>
+      <c r="J147" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="5"/>
+      <c r="J148" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="B173" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="B175" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
+++ b/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE43E2-B206-47E6-8F5F-B4DA5FE644C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AC9DC4-A2BE-4109-80D8-665992D902D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enable URL rewriting" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="controller to decide response" sheetId="5" r:id="rId5"/>
     <sheet name="load classes automatically" sheetId="6" r:id="rId6"/>
     <sheet name="Make debugging easier" sheetId="7" r:id="rId7"/>
+    <sheet name="Always return JSON" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="204">
   <si>
     <t>rest-api-php</t>
   </si>
@@ -1580,6 +1581,151 @@
       <t>string $id): void</t>
     </r>
   </si>
+  <si>
+    <t>Ở phần trên(bên sheet Make debugging easier) mình đã giải quyết được vấn đề api trả về error khi gọi đến api thông qua url nhưng truyền thiếu tham số</t>
+  </si>
+  <si>
+    <t>Giải quyết được vấn đề api trả về error khi gọi đến api thông qua url nhưng truyền thiếu tham số</t>
+  </si>
+  <si>
+    <t>Kết quả trả về đang là dạng html, tuy nhiên html là chỉ dùng hiển thị trên browser. Còn đối với api thì cần phải trả về dạng json</t>
+  </si>
+  <si>
+    <r>
+      <t>Để dev thì đối với tham số $id của hàm processRequest() mình sẽ để là bắt buộc truyền bằng cách bỏ dấu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", sau khi dev xong thì sẽ thêm lại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public function processRequest(string $method, string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>): void</t>
+    </r>
+  </si>
+  <si>
+    <t>ErrorHandler.php</t>
+  </si>
+  <si>
+    <t>Throwable</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/class.throwable.php</t>
+  </si>
+  <si>
+    <t>Throwable có thể access nhiều method để lấy các giá trị error cụ thể</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\ErrorHandler.php</t>
+  </si>
+  <si>
+    <t>class ErrorHandler</t>
+  </si>
+  <si>
+    <t>    public static function handleException(Throwable $exception): void</t>
+  </si>
+  <si>
+    <t>        http_response_code(500);</t>
+  </si>
+  <si>
+    <t>        echo json_encode([</t>
+  </si>
+  <si>
+    <t>            "code" =&gt; $exception-&gt;getCode(),</t>
+  </si>
+  <si>
+    <t>            "message" =&gt; $exception-&gt;getMessage(),</t>
+  </si>
+  <si>
+    <t>            "file" =&gt; $exception-&gt;getFile(),</t>
+  </si>
+  <si>
+    <t>            "line" =&gt; $exception-&gt;getLine()</t>
+  </si>
+  <si>
+    <t>        ]);</t>
+  </si>
+  <si>
+    <t>set_exception_handler("ErrorHandler::handleException");</t>
+  </si>
+  <si>
+    <t>header("Content-type: application/json; charset=UTF-8");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả trả về đang là dạng html, tuy nhiên html là chỉ dùng hiển thị trên browser. </t>
+  </si>
+  <si>
+    <t>Còn đối với api thì cần phải trả về dạng json</t>
+  </si>
+  <si>
+    <t>Trong môi trường production thì có thể ko cần trả đầy đủ hết mà chỉ trả về các giá trị cần thiết</t>
+  </si>
+  <si>
+    <t>như code và message</t>
+  </si>
+  <si>
+    <t>Các giá trị file và line thì có thể xuất ra log</t>
+  </si>
+  <si>
+    <t>Sets a user-defined exception handler function</t>
+  </si>
 </sst>
 </file>
 
@@ -1887,7 +2033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1938,6 +2084,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4574,6 +4721,414 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCD4E76-2C92-EDB7-F65B-534FAB211D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4029075" y="714375"/>
+          <a:ext cx="2809875" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>87896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C9BB6B-127B-4E29-59CC-94087DEA3C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1771650"/>
+          <a:ext cx="7772400" cy="5555246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D64475-197D-1E06-CAA6-CFF1171A46CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2828925" y="13115925"/>
+          <a:ext cx="323850" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465465</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>37652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7B0BB8-3E42-736E-0FDE-4C7F80C9E4B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="22174200"/>
+          <a:ext cx="10076190" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A3B91E-5A4A-838E-7F30-FB31EC5F8E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="14811375"/>
+          <a:ext cx="285750" cy="9944100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F13133-6B3D-1360-F20B-15E238B6E172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="13515975"/>
+          <a:ext cx="6315075" cy="10458450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>484520</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>142340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740E4530-DD41-879A-42A5-28BA3E0BB603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="25965150"/>
+          <a:ext cx="10038095" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC40DE7-032D-F584-CE3D-55EEFB9E09B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2619375" y="20554950"/>
+          <a:ext cx="257175" cy="8372475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18641,8 +19196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6D62C3-A869-4F51-BE40-AA6DF17ED1EF}">
   <dimension ref="A2:T176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="J142" sqref="J142"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18650,6 +19205,11 @@
     <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -21091,4 +21651,2455 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30271-02CB-4589-876C-D76ACCA78350}">
+  <dimension ref="A2:S160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="26"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="26"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="26"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="26"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="26"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="26"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="26"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="26"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="26"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="26"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="26"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="26"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="26"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="26"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="26"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="4"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="4"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="5"/>
+      <c r="K74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="5"/>
+      <c r="K75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="5"/>
+      <c r="K76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="B85" s="4"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="B86" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="B87" s="4"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="B88" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="B89" s="4"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="B90" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="B91" s="4"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="B92" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="5"/>
+      <c r="J92" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="B94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="B95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="B96" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="4"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="5"/>
+      <c r="J108" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="4"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="5"/>
+      <c r="K109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="4"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="114" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="115" spans="1:19">
+      <c r="A115" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="20"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="21"/>
+      <c r="B116" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="22"/>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="21"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="22"/>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="21"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="22"/>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="21"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="22"/>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="21"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="22"/>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="21"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="22"/>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="21"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="22"/>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="21"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="22"/>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="21"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="22"/>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="21"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="22"/>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="21"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="22"/>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="21"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="22"/>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="21"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="22"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="21"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="22"/>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="21"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="22"/>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="21"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="22"/>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="21"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="22"/>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="21"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="22"/>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="21"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="22"/>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="21"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="22"/>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="21"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="22"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="21"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="22"/>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="21"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="22"/>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="21"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="22"/>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" s="21"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="22"/>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="21"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="22"/>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="21"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="22"/>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="21"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="22"/>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="21"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="22"/>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" s="21"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="22"/>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="21"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="22"/>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" s="21"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="22"/>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" s="21"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="22"/>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" s="21"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="22"/>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" s="21"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="22"/>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" s="21"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="22"/>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" s="21"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="22"/>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" s="21"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="22"/>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" s="21"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
+      <c r="S154" s="22"/>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" s="21"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="22"/>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="21"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="22"/>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="21"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11"/>
+      <c r="S157" s="22"/>
+    </row>
+    <row r="158" spans="1:19">
+      <c r="A158" s="21"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="22"/>
+    </row>
+    <row r="159" spans="1:19">
+      <c r="A159" s="21"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="22"/>
+    </row>
+    <row r="160" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A160" s="23"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
+      <c r="N160" s="24"/>
+      <c r="O160" s="24"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="24"/>
+      <c r="R160" s="24"/>
+      <c r="S160" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
+++ b/me/4.create-a-restful-api/1.build-a-framework-for-serving-the-api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AC9DC4-A2BE-4109-80D8-665992D902D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F30CF-F6C7-43B0-AF16-3599FF2DE37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enable URL rewriting" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="load classes automatically" sheetId="6" r:id="rId6"/>
     <sheet name="Make debugging easier" sheetId="7" r:id="rId7"/>
     <sheet name="Always return JSON" sheetId="8" r:id="rId8"/>
+    <sheet name="405 status" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="228">
   <si>
     <t>rest-api-php</t>
   </si>
@@ -736,10 +737,6 @@
       </rPr>
       <t xml:space="preserve">u hành desktop. </t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>curl http://localhost/api/tasks</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1726,6 +1723,81 @@
   <si>
     <t>Sets a user-defined exception handler function</t>
   </si>
+  <si>
+    <t>Send a 405 status code and Allow header for invalid request methods</t>
+  </si>
+  <si>
+    <t>curl http://localhost/api/tasks</t>
+  </si>
+  <si>
+    <t>    public function processRequest(string $method, ?string $id): void</t>
+  </si>
+  <si>
+    <t>                echo json_encode("index");</t>
+  </si>
+  <si>
+    <t>                echo json_encode("create");</t>
+  </si>
+  <si>
+    <t>                    echo json_encode("show $id");</t>
+  </si>
+  <si>
+    <t>                    echo json_encode("update $id");</t>
+  </si>
+  <si>
+    <t>                    echo json_encode("delete $id");</t>
+  </si>
+  <si>
+    <t>Vì response trả về dạng json nên đối với kết quả hợp lệ cũng phải customize dạng json chứ ko phải string</t>
+  </si>
+  <si>
+    <t>405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTTP/Status/405</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTTP/Headers/Allow</t>
+  </si>
+  <si>
+    <t>            } else {</t>
+  </si>
+  <si>
+    <t>                $this-&gt;respondMethodNotAllowed("GET, POST");</t>
+  </si>
+  <si>
+    <t>                default:</t>
+  </si>
+  <si>
+    <t>                    $this-&gt;respondMethodNotAllowed("GET, PATCH, DELETE");</t>
+  </si>
+  <si>
+    <t>    private function respondMethodNotAllowed(string $allowed_methods): void</t>
+  </si>
+  <si>
+    <t>        http_response_code(405);</t>
+  </si>
+  <si>
+    <t>        header("Allow: $allowed_methods");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xử lý khi api gửi request đến với các phương thức khác ngoài GET và POST trong trường hợp url </t>
+  </si>
+  <si>
+    <t>ko có $id(/api/tasks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xử lý khi api gửi request đến với các phương thức khác ngoài GET, PATCH, DELETE trong trường </t>
+  </si>
+  <si>
+    <t>hợp url  có $id(/api/tasks/123)</t>
+  </si>
+  <si>
+    <t>Khi response trả về code 405 đồng thời phải thêm Allow cùng với các phương thức nào được gửi đến</t>
+  </si>
 </sst>
 </file>
 
@@ -2033,7 +2105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2085,6 +2157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5126,6 +5199,611 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A565D7-142F-91B5-3050-57A0AF6F22AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="371475" y="20535900"/>
+          <a:ext cx="400050" cy="10420350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE2D6C4-FF92-7FC5-059C-A43D3EBCCD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1038225"/>
+          <a:ext cx="11344275" cy="5406386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>82215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507D8ECC-FDC2-D500-87FD-F14E2802CD3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="7486650"/>
+          <a:ext cx="11363325" cy="5740065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EABD13-5B1F-1B51-DE66-F3B74B5059E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="24907875"/>
+          <a:ext cx="38100" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E8E4B6-FD8B-2274-87B8-9C198644F50F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="21326475"/>
+          <a:ext cx="95250" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB259E25-1B50-916B-1BB2-176E14178BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="26241375"/>
+          <a:ext cx="3657600" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436892</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>37506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4B037B-DB3F-B439-C1A6-F0B1F55104FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="27670125"/>
+          <a:ext cx="10066667" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E327109-E5A3-85E0-7E1A-E4D570D54D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1047750" y="26469975"/>
+          <a:ext cx="495300" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D95D75B-1873-D399-BF23-1F4FB1FF06DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="26279475"/>
+          <a:ext cx="6419850" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436894</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>47030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE0A8EB-B2C0-4BDA-0FA0-C80AC030EF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="33194625"/>
+          <a:ext cx="10047619" cy="4761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FAE815-7A88-9876-383E-DF344631ADD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1162050" y="26479500"/>
+          <a:ext cx="400050" cy="8820150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3174177F-6B5D-5EDE-B696-746E5E9F0DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="26289000"/>
+          <a:ext cx="6305550" cy="8534400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8262,7 +8940,7 @@
     <row r="40" spans="1:13">
       <c r="A40" s="21"/>
       <c r="B40" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -8441,7 +9119,7 @@
       <c r="A52" s="21"/>
       <c r="B52" s="4"/>
       <c r="C52" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="35" t="s">
         <v>56</v>
@@ -8728,8 +9406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E41FDF-19ED-4A65-B0F7-DB9E96A3E4AA}">
   <dimension ref="A2:U134"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8849,7 +9527,7 @@
       <c r="A9" s="21"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -9195,7 +9873,7 @@
     <row r="24" spans="1:21" ht="18.75">
       <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -9220,7 +9898,7 @@
     <row r="25" spans="1:21">
       <c r="A25" s="21"/>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -9498,7 +10176,7 @@
     <row r="37" spans="1:21">
       <c r="A37" s="21"/>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -9799,7 +10477,7 @@
     <row r="51" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:21">
       <c r="A52" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -9825,7 +10503,7 @@
     <row r="53" spans="1:21">
       <c r="A53" s="21"/>
       <c r="B53" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -11730,12 +12408,12 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11760,7 +12438,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -12625,7 +13303,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -12770,7 +13448,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="B67" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -12781,7 +13459,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="B68" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -12792,7 +13470,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="B69" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -12803,7 +13481,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="B70" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -12814,7 +13492,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="B71" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -12826,7 +13504,7 @@
     <row r="73" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="74" spans="1:21">
       <c r="A74" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -12852,7 +13530,7 @@
     <row r="75" spans="1:21">
       <c r="A75" s="21"/>
       <c r="B75" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -13383,7 +14061,7 @@
     <row r="98" spans="1:21">
       <c r="A98" s="21"/>
       <c r="B98" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -13931,71 +14609,71 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -14230,7 +14908,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -14238,10 +14916,10 @@
       <c r="I25" s="11"/>
       <c r="J25" s="5"/>
       <c r="K25" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -14250,7 +14928,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -14265,7 +14943,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -14380,7 +15058,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -14392,7 +15070,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -14404,7 +15082,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -14416,7 +15094,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -14428,7 +15106,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -14450,7 +15128,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -14472,7 +15150,7 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -14494,7 +15172,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="B50" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -14506,7 +15184,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -14533,7 +15211,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -14545,7 +15223,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -14557,7 +15235,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -14569,7 +15247,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="B59" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -14581,7 +15259,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -14593,7 +15271,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -14605,7 +15283,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="B62" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -14617,7 +15295,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="B63" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -14629,7 +15307,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="B64" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -14641,7 +15319,7 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -14653,7 +15331,7 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -14665,7 +15343,7 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -14677,7 +15355,7 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -14689,7 +15367,7 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -14701,7 +15379,7 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -14713,7 +15391,7 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -14725,7 +15403,7 @@
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -14737,7 +15415,7 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -14749,7 +15427,7 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -14761,7 +15439,7 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -14773,7 +15451,7 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -14785,7 +15463,7 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -14797,7 +15475,7 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -14809,7 +15487,7 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -14821,7 +15499,7 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -14833,7 +15511,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="B81" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -14845,7 +15523,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="B82" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -14857,7 +15535,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="B83" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -14869,7 +15547,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="B84" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -14881,7 +15559,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="B85" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -14893,7 +15571,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="B86" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -14905,7 +15583,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="B87" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -14918,7 +15596,7 @@
     <row r="89" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="90" spans="1:21">
       <c r="A90" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -14944,7 +15622,7 @@
     <row r="91" spans="1:21">
       <c r="A91" s="21"/>
       <c r="B91" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -14969,7 +15647,7 @@
     <row r="92" spans="1:21">
       <c r="A92" s="21"/>
       <c r="B92" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -15546,7 +16224,7 @@
     <row r="117" spans="1:21">
       <c r="A117" s="21"/>
       <c r="B117" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -15571,7 +16249,7 @@
     <row r="118" spans="1:21">
       <c r="A118" s="21"/>
       <c r="B118" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -16171,7 +16849,7 @@
     <row r="144" spans="1:21">
       <c r="A144" s="21"/>
       <c r="B144" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -16196,7 +16874,7 @@
     <row r="145" spans="1:21">
       <c r="A145" s="21"/>
       <c r="B145" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -16750,7 +17428,7 @@
     <row r="169" spans="1:21">
       <c r="A169" s="21"/>
       <c r="B169" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -16775,7 +17453,7 @@
     <row r="170" spans="1:21">
       <c r="A170" s="21"/>
       <c r="B170" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -17323,17 +18001,17 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -17358,7 +18036,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -18310,7 +18988,7 @@
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -18326,7 +19004,7 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -18340,7 +19018,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -18356,12 +19034,12 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -18369,7 +19047,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="B63" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -18377,7 +19055,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="B64" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -18385,7 +19063,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="B65" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -18393,7 +19071,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="B66" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -18401,7 +19079,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -18409,7 +19087,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="B68" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -18417,12 +19095,12 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="B72" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -18899,7 +19577,7 @@
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
@@ -18913,7 +19591,7 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -18925,7 +19603,7 @@
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="11"/>
@@ -18936,7 +19614,7 @@
         <v>9</v>
       </c>
       <c r="L108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -18944,7 +19622,7 @@
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -18979,7 +19657,7 @@
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -18991,7 +19669,7 @@
         <v>9</v>
       </c>
       <c r="J115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="2:10">
@@ -19085,7 +19763,7 @@
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -19105,7 +19783,7 @@
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -19116,7 +19794,7 @@
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -19127,7 +19805,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="B129" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -19147,7 +19825,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="B131" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -19167,7 +19845,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="B133" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -19178,7 +19856,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -19204,12 +19882,12 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -19446,7 +20124,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -19463,7 +20141,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -19482,7 +20160,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -19498,7 +20176,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -19535,7 +20213,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="B28" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -19547,7 +20225,7 @@
         <v>9</v>
       </c>
       <c r="J28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -19559,12 +20237,12 @@
       <c r="G29" s="11"/>
       <c r="H29" s="5"/>
       <c r="J29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -19576,7 +20254,7 @@
         <v>9</v>
       </c>
       <c r="J30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -19590,7 +20268,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="B32" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -19690,7 +20368,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -19710,7 +20388,7 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -19721,7 +20399,7 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -19732,7 +20410,7 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -19752,7 +20430,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -19772,7 +20450,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -19783,7 +20461,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -19808,7 +20486,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -19819,7 +20497,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -19830,7 +20508,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="B58" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -19842,12 +20520,12 @@
         <v>9</v>
       </c>
       <c r="J58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -19856,12 +20534,12 @@
       <c r="G59" s="11"/>
       <c r="H59" s="5"/>
       <c r="J59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="B60" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -19872,7 +20550,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="B61" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -19883,7 +20561,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="B62" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -19894,7 +20572,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="B63" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -19905,7 +20583,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="B64" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -19916,7 +20594,7 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -19927,7 +20605,7 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -19938,7 +20616,7 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -19949,7 +20627,7 @@
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -19960,7 +20638,7 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -19971,7 +20649,7 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -19982,7 +20660,7 @@
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -19993,7 +20671,7 @@
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -20004,7 +20682,7 @@
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -20015,7 +20693,7 @@
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -20026,7 +20704,7 @@
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -20037,7 +20715,7 @@
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -20048,7 +20726,7 @@
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -20059,7 +20737,7 @@
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -20070,7 +20748,7 @@
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -20081,7 +20759,7 @@
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -20092,7 +20770,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="B81" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -20103,7 +20781,7 @@
     </row>
     <row r="82" spans="1:20">
       <c r="B82" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -20114,7 +20792,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="B83" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -20125,7 +20803,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="B84" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -20136,7 +20814,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="B85" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -20147,7 +20825,7 @@
     </row>
     <row r="86" spans="1:20">
       <c r="B86" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -20158,7 +20836,7 @@
     </row>
     <row r="87" spans="1:20">
       <c r="B87" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -20170,7 +20848,7 @@
     <row r="89" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="90" spans="1:20">
       <c r="A90" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -20195,7 +20873,7 @@
     <row r="91" spans="1:20">
       <c r="A91" s="21"/>
       <c r="B91" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -20837,7 +21515,7 @@
     <row r="120" spans="1:20">
       <c r="A120" s="21"/>
       <c r="B120" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -21258,12 +21936,12 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -21288,7 +21966,7 @@
     </row>
     <row r="145" spans="2:10">
       <c r="B145" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -21299,7 +21977,7 @@
     </row>
     <row r="146" spans="2:10">
       <c r="B146" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -21310,7 +21988,7 @@
     </row>
     <row r="147" spans="2:10">
       <c r="B147" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -21322,12 +22000,12 @@
         <v>9</v>
       </c>
       <c r="J147" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="2:10">
       <c r="B148" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -21336,12 +22014,12 @@
       <c r="G148" s="11"/>
       <c r="H148" s="5"/>
       <c r="J148" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="2:10">
       <c r="B149" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -21352,7 +22030,7 @@
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -21363,7 +22041,7 @@
     </row>
     <row r="151" spans="2:10">
       <c r="B151" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -21374,7 +22052,7 @@
     </row>
     <row r="152" spans="2:10">
       <c r="B152" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -21385,7 +22063,7 @@
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -21396,7 +22074,7 @@
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -21407,7 +22085,7 @@
     </row>
     <row r="155" spans="2:10">
       <c r="B155" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -21418,7 +22096,7 @@
     </row>
     <row r="156" spans="2:10">
       <c r="B156" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -21429,7 +22107,7 @@
     </row>
     <row r="157" spans="2:10">
       <c r="B157" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -21440,7 +22118,7 @@
     </row>
     <row r="158" spans="2:10">
       <c r="B158" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -21451,7 +22129,7 @@
     </row>
     <row r="159" spans="2:10">
       <c r="B159" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -21462,7 +22140,7 @@
     </row>
     <row r="160" spans="2:10">
       <c r="B160" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -21473,7 +22151,7 @@
     </row>
     <row r="161" spans="2:8">
       <c r="B161" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -21484,7 +22162,7 @@
     </row>
     <row r="162" spans="2:8">
       <c r="B162" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -21495,7 +22173,7 @@
     </row>
     <row r="163" spans="2:8">
       <c r="B163" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -21506,7 +22184,7 @@
     </row>
     <row r="164" spans="2:8">
       <c r="B164" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -21517,7 +22195,7 @@
     </row>
     <row r="165" spans="2:8">
       <c r="B165" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -21528,7 +22206,7 @@
     </row>
     <row r="166" spans="2:8">
       <c r="B166" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -21539,7 +22217,7 @@
     </row>
     <row r="167" spans="2:8">
       <c r="B167" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -21550,7 +22228,7 @@
     </row>
     <row r="168" spans="2:8">
       <c r="B168" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -21561,7 +22239,7 @@
     </row>
     <row r="169" spans="2:8">
       <c r="B169" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -21572,7 +22250,7 @@
     </row>
     <row r="170" spans="2:8">
       <c r="B170" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -21583,7 +22261,7 @@
     </row>
     <row r="171" spans="2:8">
       <c r="B171" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -21594,7 +22272,7 @@
     </row>
     <row r="172" spans="2:8">
       <c r="B172" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -21605,7 +22283,7 @@
     </row>
     <row r="173" spans="2:8">
       <c r="B173" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -21616,7 +22294,7 @@
     </row>
     <row r="174" spans="2:8">
       <c r="B174" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -21627,7 +22305,7 @@
     </row>
     <row r="175" spans="2:8">
       <c r="B175" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -21638,7 +22316,7 @@
     </row>
     <row r="176" spans="2:8">
       <c r="B176" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -21655,42 +22333,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30271-02CB-4589-876C-D76ACCA78350}">
-  <dimension ref="A2:S160"/>
+  <dimension ref="A2:S198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:15">
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -21710,7 +22388,7 @@
     <row r="9" spans="1:15">
       <c r="A9" s="16"/>
       <c r="B9" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -21729,7 +22407,7 @@
     <row r="10" spans="1:15">
       <c r="A10" s="4"/>
       <c r="B10" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -22506,7 +23184,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -22523,7 +23201,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -22543,7 +23221,7 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -22556,7 +23234,7 @@
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -22572,7 +23250,7 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -22584,7 +23262,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -22611,7 +23289,7 @@
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -22623,7 +23301,7 @@
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -22635,7 +23313,7 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -22647,7 +23325,7 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -22659,7 +23337,7 @@
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -22681,7 +23359,7 @@
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -22693,7 +23371,7 @@
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -22703,12 +23381,12 @@
       <c r="H74" s="11"/>
       <c r="I74" s="5"/>
       <c r="K74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -22718,12 +23396,12 @@
       <c r="H75" s="11"/>
       <c r="I75" s="5"/>
       <c r="K75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -22733,12 +23411,12 @@
       <c r="H76" s="11"/>
       <c r="I76" s="5"/>
       <c r="K76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -22750,7 +23428,7 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -22762,7 +23440,7 @@
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -22774,7 +23452,7 @@
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -22813,7 +23491,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="B86" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -22835,7 +23513,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="B88" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -22857,7 +23535,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="B90" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -22879,7 +23557,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="B92" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -22892,7 +23570,7 @@
         <v>9</v>
       </c>
       <c r="K92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -22995,7 +23673,7 @@
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -23017,7 +23695,7 @@
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -23029,7 +23707,7 @@
     </row>
     <row r="105" spans="2:11">
       <c r="B105" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -23041,7 +23719,7 @@
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -23063,7 +23741,7 @@
     </row>
     <row r="108" spans="2:11">
       <c r="B108" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -23076,7 +23754,7 @@
         <v>9</v>
       </c>
       <c r="K108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -23089,12 +23767,12 @@
       <c r="H109" s="11"/>
       <c r="I109" s="5"/>
       <c r="K109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -23116,7 +23794,7 @@
     </row>
     <row r="112" spans="2:11">
       <c r="B112" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -23129,7 +23807,7 @@
     <row r="114" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="115" spans="1:19">
       <c r="A115" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -24097,9 +24775,4049 @@
       <c r="R160" s="24"/>
       <c r="S160" s="25"/>
     </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="B165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="B166" s="4"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="B167" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="B168" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="B169" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="B170" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="B171" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="B172" s="4"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="B173" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="B174" s="4"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="B175" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="B176" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="2:9">
+      <c r="B177" s="4"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="2:9">
+      <c r="B178" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="2:9">
+      <c r="B179" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="2:9">
+      <c r="B180" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="2:9">
+      <c r="B181" s="4"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="2:9">
+      <c r="B183" s="4"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="2:9">
+      <c r="B184" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="2:9">
+      <c r="B185" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="2:9">
+      <c r="B186" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="2:9">
+      <c r="B187" s="4"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="2:9">
+      <c r="B188" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="2:9">
+      <c r="B189" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="2:9">
+      <c r="B190" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="2:9">
+      <c r="B191" s="4"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="2:9">
+      <c r="B192" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="2:9">
+      <c r="B193" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="2:9">
+      <c r="B194" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="2:9">
+      <c r="B195" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="2:9">
+      <c r="B196" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="2:9">
+      <c r="B197" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="2:9">
+      <c r="B198" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD52E3-7782-45BF-9727-DF5DCFC0DD77}">
+  <dimension ref="A2:T202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="4"/>
+      <c r="B5" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="4"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="4"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="4"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="4"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="4"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="4"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="4"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="4"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="4"/>
+      <c r="B39" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="4"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="4"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="4"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="4"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="4"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="4"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="4"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="4"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="4"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="4"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="4"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="4"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="4"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="4"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="4"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="4"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="4"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="4"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="4"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="4"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="4"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="4"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="4"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="4"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="4"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="4"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="4"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="4"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="4"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="4"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="4"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="26"/>
+      <c r="B75" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="26"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="26"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="26"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="26"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="26"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="26"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="26"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="26"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="26"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="26"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="26"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="26"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="31"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="26"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="26"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="26"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="26"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="26"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="B96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="B99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="B100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="4"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:12">
+      <c r="B109" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="5"/>
+      <c r="K110" t="s">
+        <v>9</v>
+      </c>
+      <c r="L110" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111" s="45"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="5"/>
+      <c r="L111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="B129" s="4"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="B130" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="B131" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="5"/>
+      <c r="K131" t="s">
+        <v>9</v>
+      </c>
+      <c r="L131" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="B132" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="5"/>
+      <c r="L132" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="B133" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="B134" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="B135" s="4"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="B136" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="B137" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="B138" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="B139" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="5"/>
+      <c r="K139" t="s">
+        <v>9</v>
+      </c>
+      <c r="L139" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="B140" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="B141" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="143" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="144" spans="1:19">
+      <c r="A144" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19"/>
+      <c r="N144" s="19"/>
+      <c r="O144" s="19"/>
+      <c r="P144" s="19"/>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="19"/>
+      <c r="S144" s="20"/>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" s="21"/>
+      <c r="B145" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="22"/>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="21"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="22"/>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" s="21"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="22"/>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" s="21"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="22"/>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" s="21"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="22"/>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" s="21"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="22"/>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" s="21"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="22"/>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" s="21"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="22"/>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" s="21"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="22"/>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" s="21"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="22"/>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" s="21"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="22"/>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="21"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="22"/>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="21"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="22"/>
+    </row>
+    <row r="158" spans="1:19">
+      <c r="A158" s="21"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="22"/>
+    </row>
+    <row r="159" spans="1:19">
+      <c r="A159" s="21"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="22"/>
+    </row>
+    <row r="160" spans="1:19">
+      <c r="A160" s="21"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="22"/>
+    </row>
+    <row r="161" spans="1:19">
+      <c r="A161" s="21"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="22"/>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" s="21"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="22"/>
+    </row>
+    <row r="163" spans="1:19">
+      <c r="A163" s="21"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="22"/>
+    </row>
+    <row r="164" spans="1:19">
+      <c r="A164" s="21"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
+      <c r="Q164" s="11"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="22"/>
+    </row>
+    <row r="165" spans="1:19">
+      <c r="A165" s="21"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="11"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="22"/>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="A166" s="21"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="11"/>
+      <c r="Q166" s="11"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="22"/>
+    </row>
+    <row r="167" spans="1:19">
+      <c r="A167" s="21"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="5"/>
+      <c r="S167" s="22"/>
+    </row>
+    <row r="168" spans="1:19">
+      <c r="A168" s="21"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11"/>
+      <c r="Q168" s="11"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="22"/>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="21"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11"/>
+      <c r="Q169" s="11"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="22"/>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" s="21"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="22"/>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" s="21"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+      <c r="Q171" s="8"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="22"/>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" s="21"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="22"/>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="21"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="22"/>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" s="21"/>
+      <c r="B174" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="22"/>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" s="21"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="22"/>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" s="21"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="22"/>
+    </row>
+    <row r="177" spans="1:19">
+      <c r="A177" s="21"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="22"/>
+    </row>
+    <row r="178" spans="1:19">
+      <c r="A178" s="21"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="5"/>
+      <c r="S178" s="22"/>
+    </row>
+    <row r="179" spans="1:19">
+      <c r="A179" s="21"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="22"/>
+    </row>
+    <row r="180" spans="1:19">
+      <c r="A180" s="21"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="22"/>
+    </row>
+    <row r="181" spans="1:19">
+      <c r="A181" s="21"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
+      <c r="Q181" s="11"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="22"/>
+    </row>
+    <row r="182" spans="1:19">
+      <c r="A182" s="21"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
+      <c r="Q182" s="11"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="22"/>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="21"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="11"/>
+      <c r="N183" s="11"/>
+      <c r="O183" s="11"/>
+      <c r="P183" s="11"/>
+      <c r="Q183" s="11"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="22"/>
+    </row>
+    <row r="184" spans="1:19">
+      <c r="A184" s="21"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="5"/>
+      <c r="S184" s="22"/>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185" s="21"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="22"/>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" s="21"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
+      <c r="Q186" s="11"/>
+      <c r="R186" s="5"/>
+      <c r="S186" s="22"/>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" s="21"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="22"/>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188" s="21"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="11"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11"/>
+      <c r="Q188" s="11"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="22"/>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" s="21"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="22"/>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" s="21"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="22"/>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="21"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="11"/>
+      <c r="M191" s="11"/>
+      <c r="N191" s="11"/>
+      <c r="O191" s="11"/>
+      <c r="P191" s="11"/>
+      <c r="Q191" s="11"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="22"/>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192" s="21"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="11"/>
+      <c r="M192" s="11"/>
+      <c r="N192" s="11"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="11"/>
+      <c r="Q192" s="11"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="22"/>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" s="21"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
+      <c r="Q193" s="11"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="22"/>
+    </row>
+    <row r="194" spans="1:19">
+      <c r="A194" s="21"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
+      <c r="Q194" s="11"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="22"/>
+    </row>
+    <row r="195" spans="1:19">
+      <c r="A195" s="21"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
+      <c r="Q195" s="11"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="22"/>
+    </row>
+    <row r="196" spans="1:19">
+      <c r="A196" s="21"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="11"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
+      <c r="Q196" s="11"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="22"/>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" s="21"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
+      <c r="Q197" s="11"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="22"/>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="A198" s="21"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
+      <c r="Q198" s="11"/>
+      <c r="R198" s="5"/>
+      <c r="S198" s="22"/>
+    </row>
+    <row r="199" spans="1:19">
+      <c r="A199" s="21"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="11"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
+      <c r="Q199" s="11"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="22"/>
+    </row>
+    <row r="200" spans="1:19">
+      <c r="A200" s="21"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="11"/>
+      <c r="L200" s="11"/>
+      <c r="M200" s="11"/>
+      <c r="N200" s="11"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
+      <c r="Q200" s="11"/>
+      <c r="R200" s="5"/>
+      <c r="S200" s="22"/>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" s="21"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="8"/>
+      <c r="K201" s="8"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="8"/>
+      <c r="N201" s="8"/>
+      <c r="O201" s="8"/>
+      <c r="P201" s="8"/>
+      <c r="Q201" s="8"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="22"/>
+    </row>
+    <row r="202" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A202" s="23"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="24"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="24"/>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
+      <c r="N202" s="24"/>
+      <c r="O202" s="24"/>
+      <c r="P202" s="24"/>
+      <c r="Q202" s="24"/>
+      <c r="R202" s="24"/>
+      <c r="S202" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>